--- a/Nilai/NILAI Peserta Pelatihan Data Analytics With Python JNE.xlsx
+++ b/Nilai/NILAI Peserta Pelatihan Data Analytics With Python JNE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Py_JNE\Nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766ADB19-5310-4A16-A4C4-4F75CD635DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A430A9-4285-40B6-B3A4-792B0A39E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nilai_Akhir" sheetId="6" r:id="rId1"/>
-    <sheet name="Pertemuan1" sheetId="5" r:id="rId2"/>
-    <sheet name="Pertemuan2" sheetId="4" r:id="rId3"/>
-    <sheet name="Pertemuan3" sheetId="2" r:id="rId4"/>
-    <sheet name="Pertemuan4" sheetId="3" r:id="rId5"/>
+    <sheet name="Kuis1" sheetId="5" r:id="rId2"/>
+    <sheet name="Kuis2" sheetId="4" r:id="rId3"/>
+    <sheet name="Kuis3" sheetId="2" r:id="rId4"/>
+    <sheet name="Kuis4" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="88">
   <si>
     <t>Nama</t>
   </si>
@@ -100,33 +100,6 @@
     <t>Yudha Pratama</t>
   </si>
   <si>
-    <t>Quiz 1</t>
-  </si>
-  <si>
-    <t>Quiz 2</t>
-  </si>
-  <si>
-    <t>Quiz 3</t>
-  </si>
-  <si>
-    <t>Quiz 4</t>
-  </si>
-  <si>
-    <t>Quiz 5</t>
-  </si>
-  <si>
-    <t>Quiz 6</t>
-  </si>
-  <si>
-    <t>Quiz 7</t>
-  </si>
-  <si>
-    <t>Quiz 8</t>
-  </si>
-  <si>
-    <t>Quiz 9</t>
-  </si>
-  <si>
     <t>Total Skor</t>
   </si>
   <si>
@@ -187,15 +160,9 @@
     <t>Ade Darmawan</t>
   </si>
   <si>
-    <t>Quiz 7a</t>
-  </si>
-  <si>
     <t>Rata-Rata</t>
   </si>
   <si>
-    <t>Quiz 6 (PLOT)</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -259,24 +226,96 @@
     <t>No</t>
   </si>
   <si>
-    <t>Pertemuan1</t>
-  </si>
-  <si>
-    <t>Pertemuan2</t>
-  </si>
-  <si>
-    <t>Pertemuan3</t>
-  </si>
-  <si>
-    <t>Pertemuan4</t>
-  </si>
-  <si>
     <t>Rata-rata</t>
   </si>
   <si>
     <t>Status Kelulusan</t>
   </si>
   <si>
+    <t>Persentase</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Tugas 1</t>
+  </si>
+  <si>
+    <t>Tugas 2</t>
+  </si>
+  <si>
+    <t>Kuis 1</t>
+  </si>
+  <si>
+    <t>Kuis 2</t>
+  </si>
+  <si>
+    <t>Kuis 3</t>
+  </si>
+  <si>
+    <t>Kuis 4</t>
+  </si>
+  <si>
+    <t>Soal 1</t>
+  </si>
+  <si>
+    <t>Soal 2</t>
+  </si>
+  <si>
+    <t>Soal 3</t>
+  </si>
+  <si>
+    <t>Soal 4</t>
+  </si>
+  <si>
+    <t>Soal 5</t>
+  </si>
+  <si>
+    <t>Soal 6</t>
+  </si>
+  <si>
+    <t>Soal 7</t>
+  </si>
+  <si>
+    <t>Soal 8</t>
+  </si>
+  <si>
+    <t>Soal 9</t>
+  </si>
+  <si>
+    <t>Soal1</t>
+  </si>
+  <si>
+    <t>Soal2</t>
+  </si>
+  <si>
+    <t>Soal3</t>
+  </si>
+  <si>
+    <t>Soal4</t>
+  </si>
+  <si>
+    <t>Soal5</t>
+  </si>
+  <si>
+    <t>Soal6</t>
+  </si>
+  <si>
+    <t>Soal7</t>
+  </si>
+  <si>
+    <t>Soal8</t>
+  </si>
+  <si>
+    <t>Soal9</t>
+  </si>
+  <si>
+    <t>Soal10</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -287,15 +326,6 @@
   </si>
   <si>
     <t>Non-Peserta</t>
-  </si>
-  <si>
-    <t>Persentase</t>
-  </si>
-  <si>
-    <t>Jumlah</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -305,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,13 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -373,14 +396,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +519,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,18 +570,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,9 +598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,17 +628,26 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -633,34 +655,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -678,30 +673,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1028,978 +999,1136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7630AB1-ADC7-47DA-89F1-6356D3A27066}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C1" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="26">
-        <f>Pertemuan1!G3*100</f>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="20">
+        <v>100</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="23">
+        <f>Kuis1!G3*100</f>
         <v>66</v>
       </c>
-      <c r="D2" s="26">
-        <f>Pertemuan2!G3*100</f>
+      <c r="F2" s="23">
+        <f>Kuis2!G3*100</f>
         <v>93</v>
       </c>
-      <c r="E2" s="26">
-        <f>Pertemuan3!O3</f>
+      <c r="G2" s="23">
+        <f>Kuis3!O3</f>
         <v>79.5</v>
       </c>
-      <c r="F2" s="26">
-        <f>Pertemuan4!N3</f>
+      <c r="H2" s="23">
+        <f>Kuis4!N3</f>
         <v>83.75</v>
       </c>
-      <c r="G2" s="27">
-        <f>AVERAGE(C2:F2)</f>
-        <v>80.5625</v>
-      </c>
-      <c r="H2" s="23" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.IFS(G2&gt;=70,"Lulus",AND(G2&lt;70,G2&gt;=50),"Remedial",G2&lt;50,"Non-Peserta")</f>
+      <c r="I2" s="24">
+        <f>AVERAGE(C2:H2)</f>
+        <v>84.45</v>
+      </c>
+      <c r="J2" s="20" t="str" cm="1">
+        <f t="array" ref="J2">_xlfn.IFS(I2&gt;=70,"Lulus",AND(I2&lt;70,I2&gt;=50),"Remedial",I2&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
-        <f>Pertemuan1!G4*100</f>
+      <c r="C3" s="20">
+        <v>100</v>
+      </c>
+      <c r="D3" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E3" s="23">
+        <f>Kuis1!G4*100</f>
         <v>73</v>
       </c>
-      <c r="D3" s="26">
-        <f>Pertemuan2!G4*100</f>
+      <c r="F3" s="23">
+        <f>Kuis2!G4*100</f>
         <v>46</v>
       </c>
-      <c r="E3" s="26">
-        <f>Pertemuan3!O4</f>
-        <v>75</v>
-      </c>
-      <c r="F3" s="26">
-        <f>Pertemuan4!N4</f>
-        <v>75</v>
-      </c>
-      <c r="G3" s="27">
-        <f t="shared" ref="G3:G31" si="0">AVERAGE(C3:F3)</f>
-        <v>67.25</v>
-      </c>
-      <c r="H3" s="23" t="str" cm="1">
-        <f t="array" ref="H3">_xlfn.IFS(G3&gt;=70,"Lulus",AND(G3&lt;70,G3&gt;=50),"Remedial",G3&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="23">
+        <f>Kuis3!O4</f>
+        <v>75</v>
+      </c>
+      <c r="H3" s="23">
+        <f>Kuis4!N4</f>
+        <v>75</v>
+      </c>
+      <c r="I3" s="24">
+        <f t="shared" ref="I3:I31" si="0">AVERAGE(C3:H3)</f>
+        <v>76.314999999999998</v>
+      </c>
+      <c r="J3" s="20" t="str" cm="1">
+        <f t="array" ref="J3">_xlfn.IFS(I3&gt;=70,"Lulus",AND(I3&lt;70,I3&gt;=50),"Remedial",I3&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="26">
-        <f>Pertemuan1!G5*100</f>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E4" s="23">
+        <f>Kuis1!G5*100</f>
         <v>66</v>
       </c>
-      <c r="D4" s="26">
-        <f>Pertemuan2!G5*100</f>
+      <c r="F4" s="23">
+        <f>Kuis2!G5*100</f>
         <v>53</v>
       </c>
-      <c r="E4" s="26">
-        <f>Pertemuan3!O5</f>
-        <v>75</v>
-      </c>
-      <c r="F4" s="26">
-        <f>Pertemuan4!N5</f>
-        <v>75</v>
-      </c>
-      <c r="G4" s="27">
-        <f t="shared" si="0"/>
-        <v>67.25</v>
-      </c>
-      <c r="H4" s="23" t="str" cm="1">
-        <f t="array" ref="H4">_xlfn.IFS(G4&gt;=70,"Lulus",AND(G4&lt;70,G4&gt;=50),"Remedial",G4&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="23">
+        <f>Kuis3!O5</f>
+        <v>75</v>
+      </c>
+      <c r="H4" s="23">
+        <f>Kuis4!N5</f>
+        <v>75</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" si="0"/>
+        <v>71.578000000000003</v>
+      </c>
+      <c r="J4" s="20" t="str" cm="1">
+        <f t="array" ref="J4">_xlfn.IFS(I4&gt;=70,"Lulus",AND(I4&lt;70,I4&gt;=50),"Remedial",I4&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="26">
-        <f>Pertemuan1!G6*100</f>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20">
+        <v>100</v>
+      </c>
+      <c r="D5" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E5" s="23">
+        <f>Kuis1!G6*100</f>
         <v>53</v>
       </c>
-      <c r="D5" s="26">
-        <f>Pertemuan2!G6*100</f>
+      <c r="F5" s="23">
+        <f>Kuis2!G6*100</f>
         <v>40</v>
       </c>
-      <c r="E5" s="26">
-        <f>Pertemuan3!O6</f>
+      <c r="G5" s="23">
+        <f>Kuis3!O6</f>
         <v>79</v>
       </c>
-      <c r="F5" s="26">
-        <f>Pertemuan4!N6</f>
-        <v>75</v>
-      </c>
-      <c r="G5" s="27">
-        <f t="shared" si="0"/>
-        <v>61.75</v>
-      </c>
-      <c r="H5" s="23" t="str" cm="1">
-        <f t="array" ref="H5">_xlfn.IFS(G5&gt;=70,"Lulus",AND(G5&lt;70,G5&gt;=50),"Remedial",G5&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="H5" s="23">
+        <f>Kuis4!N6</f>
+        <v>75</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" si="0"/>
+        <v>72.648333333333326</v>
+      </c>
+      <c r="J5" s="20" t="str" cm="1">
+        <f t="array" ref="J5">_xlfn.IFS(I5&gt;=70,"Lulus",AND(I5&lt;70,I5&gt;=50),"Remedial",I5&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="23" t="str" cm="1">
-        <f t="array" ref="H6">_xlfn.IFS(G6&gt;=70,"Lulus",AND(G6&lt;70,G6&gt;=50),"Remedial",G6&lt;50,"Non-Peserta")</f>
+      <c r="B6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="20" t="str" cm="1">
+        <f t="array" ref="J6">_xlfn.IFS(I6&gt;=70,"Lulus",AND(I6&lt;70,I6&gt;=50),"Remedial",I6&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="23" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(G7&gt;=70,"Lulus",AND(G7&lt;70,G7&gt;=50),"Remedial",G7&lt;50,"Non-Peserta")</f>
+      <c r="B7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="20" t="str" cm="1">
+        <f t="array" ref="J7">_xlfn.IFS(I7&gt;=70,"Lulus",AND(I7&lt;70,I7&gt;=50),"Remedial",I7&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="26">
-        <f>Pertemuan1!G9*100</f>
+      <c r="C8" s="20">
+        <v>75</v>
+      </c>
+      <c r="D8" s="20">
+        <v>80</v>
+      </c>
+      <c r="E8" s="23">
+        <f>Kuis1!G9*100</f>
         <v>53</v>
       </c>
-      <c r="D8" s="26">
-        <f>Pertemuan2!G9*100</f>
+      <c r="F8" s="23">
+        <f>Kuis2!G9*100</f>
         <v>80</v>
       </c>
-      <c r="E8" s="26">
-        <f>Pertemuan3!O9</f>
+      <c r="G8" s="23">
+        <f>Kuis3!O9</f>
         <v>78.5</v>
       </c>
-      <c r="F8" s="26">
-        <f>Pertemuan4!N9</f>
-        <v>75</v>
-      </c>
-      <c r="G8" s="27">
-        <f t="shared" si="0"/>
-        <v>71.625</v>
-      </c>
-      <c r="H8" s="23" t="str" cm="1">
-        <f t="array" ref="H8">_xlfn.IFS(G8&gt;=70,"Lulus",AND(G8&lt;70,G8&gt;=50),"Remedial",G8&lt;50,"Non-Peserta")</f>
+      <c r="H8" s="23">
+        <f>Kuis4!N9</f>
+        <v>75</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>73.583333333333329</v>
+      </c>
+      <c r="J8" s="20" t="str" cm="1">
+        <f t="array" ref="J8">_xlfn.IFS(I8&gt;=70,"Lulus",AND(I8&lt;70,I8&gt;=50),"Remedial",I8&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="23" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(G9&gt;=70,"Lulus",AND(G9&lt;70,G9&gt;=50),"Remedial",G9&lt;50,"Non-Peserta")</f>
+      <c r="B9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="40" t="str" cm="1">
+        <f t="array" ref="J9">_xlfn.IFS(I9&gt;=70,"Lulus",AND(I9&lt;70,I9&gt;=50),"Remedial",I9&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="26">
-        <f>Pertemuan1!G11*100</f>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="20">
+        <v>100</v>
+      </c>
+      <c r="D10" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E10" s="23">
+        <f>Kuis1!G11*100</f>
         <v>60</v>
       </c>
-      <c r="D10" s="26">
-        <f>Pertemuan2!G11*100</f>
+      <c r="F10" s="23">
+        <f>Kuis2!G11*100</f>
         <v>53</v>
       </c>
-      <c r="E10" s="26">
-        <f>Pertemuan3!O11</f>
+      <c r="G10" s="23">
+        <f>Kuis3!O11</f>
         <v>76</v>
       </c>
-      <c r="F10" s="26">
-        <f>Pertemuan4!N11</f>
+      <c r="H10" s="23">
+        <f>Kuis4!N11</f>
         <v>78.125</v>
       </c>
-      <c r="G10" s="27">
-        <f t="shared" si="0"/>
-        <v>66.78125</v>
-      </c>
-      <c r="H10" s="23" t="str" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(G10&gt;=70,"Lulus",AND(G10&lt;70,G10&gt;=50),"Remedial",G10&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>76.002499999999998</v>
+      </c>
+      <c r="J10" s="20" t="str" cm="1">
+        <f t="array" ref="J10">_xlfn.IFS(I10&gt;=70,"Lulus",AND(I10&lt;70,I10&gt;=50),"Remedial",I10&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="26">
-        <f>Pertemuan1!G12*100</f>
+      <c r="C11" s="20">
+        <v>100</v>
+      </c>
+      <c r="D11" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E11" s="23">
+        <f>Kuis1!G12*100</f>
         <v>66</v>
       </c>
-      <c r="D11" s="26">
-        <f>Pertemuan2!G12*100</f>
+      <c r="F11" s="23">
+        <f>Kuis2!G12*100</f>
         <v>26</v>
       </c>
-      <c r="E11" s="26">
-        <f>Pertemuan3!O12</f>
-        <v>75</v>
-      </c>
-      <c r="F11" s="26">
-        <f>Pertemuan4!N12</f>
-        <v>75</v>
-      </c>
-      <c r="G11" s="27">
-        <f t="shared" si="0"/>
-        <v>60.5</v>
-      </c>
-      <c r="H11" s="23" t="str" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(G11&gt;=70,"Lulus",AND(G11&lt;70,G11&gt;=50),"Remedial",G11&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="23">
+        <f>Kuis3!O12</f>
+        <v>75</v>
+      </c>
+      <c r="H11" s="23">
+        <f>Kuis4!N12</f>
+        <v>75</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="0"/>
+        <v>71.814999999999998</v>
+      </c>
+      <c r="J11" s="20" t="str" cm="1">
+        <f t="array" ref="J11">_xlfn.IFS(I11&gt;=70,"Lulus",AND(I11&lt;70,I11&gt;=50),"Remedial",I11&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="26">
-        <f>Pertemuan1!G13*100</f>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E12" s="23">
+        <f>Kuis1!G13*100</f>
         <v>66</v>
       </c>
-      <c r="D12" s="26">
-        <f>Pertemuan2!G13*100</f>
+      <c r="F12" s="23">
+        <f>Kuis2!G13*100</f>
         <v>60</v>
       </c>
-      <c r="E12" s="26">
-        <f>Pertemuan3!O13</f>
+      <c r="G12" s="23">
+        <f>Kuis3!O13</f>
         <v>82</v>
       </c>
-      <c r="F12" s="26">
-        <f>Pertemuan4!N13</f>
-        <v>75</v>
-      </c>
-      <c r="G12" s="27">
-        <f t="shared" si="0"/>
-        <v>70.75</v>
-      </c>
-      <c r="H12" s="23" t="str" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(G12&gt;=70,"Lulus",AND(G12&lt;70,G12&gt;=50),"Remedial",G12&lt;50,"Non-Peserta")</f>
+      <c r="H12" s="23">
+        <f>Kuis4!N13</f>
+        <v>75</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="0"/>
+        <v>74.378</v>
+      </c>
+      <c r="J12" s="20" t="str" cm="1">
+        <f t="array" ref="J12">_xlfn.IFS(I12&gt;=70,"Lulus",AND(I12&lt;70,I12&gt;=50),"Remedial",I12&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="26">
-        <f>Pertemuan1!G14*100</f>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="20">
+        <v>100</v>
+      </c>
+      <c r="D13" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E13" s="23">
+        <f>Kuis1!G14*100</f>
         <v>73</v>
       </c>
-      <c r="D13" s="26">
-        <f>Pertemuan2!G14*100</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="26">
-        <f>Pertemuan3!O14</f>
+      <c r="F13" s="23">
+        <f>Kuis2!G14*100</f>
+        <v>53</v>
+      </c>
+      <c r="G13" s="23">
+        <f>Kuis3!O14</f>
         <v>79</v>
       </c>
-      <c r="F13" s="26">
-        <f>Pertemuan4!N14</f>
-        <v>75</v>
-      </c>
-      <c r="G13" s="27">
-        <f t="shared" si="0"/>
-        <v>56.75</v>
-      </c>
-      <c r="H13" s="23" t="str" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(G13&gt;=70,"Lulus",AND(G13&lt;70,G13&gt;=50),"Remedial",G13&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H13" s="23">
+        <f>Kuis4!N14</f>
+        <v>75</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="0"/>
+        <v>78.148333333333326</v>
+      </c>
+      <c r="J13" s="20" t="str" cm="1">
+        <f t="array" ref="J13">_xlfn.IFS(I13&gt;=70,"Lulus",AND(I13&lt;70,I13&gt;=50),"Remedial",I13&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="26">
-        <f>Pertemuan1!G15*100</f>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="20">
+        <v>100</v>
+      </c>
+      <c r="D14" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E14" s="23">
+        <f>Kuis1!G15*100</f>
         <v>60</v>
       </c>
-      <c r="D14" s="26">
-        <f>Pertemuan2!G15*100</f>
+      <c r="F14" s="23">
+        <f>Kuis2!G15*100</f>
         <v>80</v>
       </c>
-      <c r="E14" s="26">
-        <f>Pertemuan3!O15</f>
+      <c r="G14" s="23">
+        <f>Kuis3!O15</f>
         <v>78</v>
       </c>
-      <c r="F14" s="26">
-        <f>Pertemuan4!N15</f>
-        <v>75</v>
-      </c>
-      <c r="G14" s="27">
-        <f t="shared" si="0"/>
-        <v>73.25</v>
-      </c>
-      <c r="H14" s="23" t="str" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(G14&gt;=70,"Lulus",AND(G14&lt;70,G14&gt;=50),"Remedial",G14&lt;50,"Non-Peserta")</f>
+      <c r="H14" s="23">
+        <f>Kuis4!N15</f>
+        <v>75</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="0"/>
+        <v>80.314999999999998</v>
+      </c>
+      <c r="J14" s="20" t="str" cm="1">
+        <f t="array" ref="J14">_xlfn.IFS(I14&gt;=70,"Lulus",AND(I14&lt;70,I14&gt;=50),"Remedial",I14&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="23" t="str" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(G15&gt;=70,"Lulus",AND(G15&lt;70,G15&gt;=50),"Remedial",G15&lt;50,"Non-Peserta")</f>
+      <c r="B15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="24">
+        <v>0</v>
+      </c>
+      <c r="J15" s="40" t="str" cm="1">
+        <f t="array" ref="J15">_xlfn.IFS(I15&gt;=70,"Lulus",AND(I15&lt;70,I15&gt;=50),"Remedial",I15&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="26">
-        <f>Pertemuan1!G17*100</f>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="20">
+        <v>100</v>
+      </c>
+      <c r="D16" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E16" s="23">
+        <f>Kuis1!G17*100</f>
         <v>60</v>
       </c>
-      <c r="D16" s="26">
-        <f>Pertemuan2!G17*100</f>
+      <c r="F16" s="23">
+        <f>Kuis2!G17*100</f>
         <v>53</v>
       </c>
-      <c r="E16" s="26">
-        <f>Pertemuan3!O17</f>
+      <c r="G16" s="23">
+        <f>Kuis3!O17</f>
         <v>78</v>
       </c>
-      <c r="F16" s="26">
-        <f>Pertemuan4!N17</f>
+      <c r="H16" s="23">
+        <f>Kuis4!N17</f>
         <v>81.875</v>
       </c>
-      <c r="G16" s="27">
-        <f t="shared" si="0"/>
-        <v>68.21875</v>
-      </c>
-      <c r="H16" s="23" t="str" cm="1">
-        <f t="array" ref="H16">_xlfn.IFS(G16&gt;=70,"Lulus",AND(G16&lt;70,G16&gt;=50),"Remedial",G16&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I16" s="24">
+        <f t="shared" si="0"/>
+        <v>76.960833333333326</v>
+      </c>
+      <c r="J16" s="20" t="str" cm="1">
+        <f t="array" ref="J16">_xlfn.IFS(I16&gt;=70,"Lulus",AND(I16&lt;70,I16&gt;=50),"Remedial",I16&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="26">
-        <f>Pertemuan1!G18*100</f>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="20">
+        <v>100</v>
+      </c>
+      <c r="D17" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E17" s="23">
+        <f>Kuis1!G18*100</f>
         <v>60</v>
       </c>
-      <c r="D17" s="26">
-        <f>Pertemuan2!G18*100</f>
+      <c r="F17" s="23">
+        <f>Kuis2!G18*100</f>
         <v>80</v>
       </c>
-      <c r="E17" s="26">
-        <f>Pertemuan3!O18</f>
-        <v>75</v>
-      </c>
-      <c r="F17" s="26">
-        <f>Pertemuan4!N18</f>
-        <v>75</v>
-      </c>
-      <c r="G17" s="27">
-        <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-      <c r="H17" s="23" t="str" cm="1">
-        <f t="array" ref="H17">_xlfn.IFS(G17&gt;=70,"Lulus",AND(G17&lt;70,G17&gt;=50),"Remedial",G17&lt;50,"Non-Peserta")</f>
+      <c r="G17" s="23">
+        <f>Kuis3!O18</f>
+        <v>75</v>
+      </c>
+      <c r="H17" s="23">
+        <f>Kuis4!N18</f>
+        <v>75</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="0"/>
+        <v>79.814999999999998</v>
+      </c>
+      <c r="J17" s="20" t="str" cm="1">
+        <f t="array" ref="J17">_xlfn.IFS(I17&gt;=70,"Lulus",AND(I17&lt;70,I17&gt;=50),"Remedial",I17&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="26">
-        <f>Pertemuan1!G19*100</f>
+      <c r="C18" s="20">
+        <v>100</v>
+      </c>
+      <c r="D18" s="20">
+        <v>80</v>
+      </c>
+      <c r="E18" s="23">
+        <f>Kuis1!G19*100</f>
         <v>86</v>
       </c>
-      <c r="D18" s="26">
-        <f>Pertemuan2!G19*100</f>
+      <c r="F18" s="23">
+        <f>Kuis2!G19*100</f>
         <v>73</v>
       </c>
-      <c r="E18" s="26">
-        <f>Pertemuan3!O19</f>
+      <c r="G18" s="23">
+        <f>Kuis3!O19</f>
         <v>79.5</v>
       </c>
-      <c r="F18" s="26">
-        <f>Pertemuan4!N19</f>
+      <c r="H18" s="23">
+        <f>Kuis4!N19</f>
         <v>80.625</v>
       </c>
-      <c r="G18" s="27">
-        <f t="shared" si="0"/>
-        <v>79.78125</v>
-      </c>
-      <c r="H18" s="23" t="str" cm="1">
-        <f t="array" ref="H18">_xlfn.IFS(G18&gt;=70,"Lulus",AND(G18&lt;70,G18&gt;=50),"Remedial",G18&lt;50,"Non-Peserta")</f>
+      <c r="I18" s="24">
+        <f t="shared" si="0"/>
+        <v>83.1875</v>
+      </c>
+      <c r="J18" s="20" t="str" cm="1">
+        <f t="array" ref="J18">_xlfn.IFS(I18&gt;=70,"Lulus",AND(I18&lt;70,I18&gt;=50),"Remedial",I18&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="26">
-        <f>Pertemuan1!G20*100</f>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="20">
+        <v>100</v>
+      </c>
+      <c r="D19" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E19" s="23">
+        <f>Kuis1!G20*100</f>
         <v>60</v>
       </c>
-      <c r="D19" s="26">
-        <f>Pertemuan2!G20*100</f>
+      <c r="F19" s="23">
+        <f>Kuis2!G20*100</f>
         <v>93</v>
       </c>
-      <c r="E19" s="26">
-        <f>Pertemuan3!O20</f>
+      <c r="G19" s="23">
+        <f>Kuis3!O20</f>
         <v>22.5</v>
       </c>
-      <c r="F19" s="26">
-        <f>Pertemuan4!N20</f>
+      <c r="H19" s="23">
+        <f>Kuis4!N20</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="G19" s="27">
-        <f t="shared" si="0"/>
-        <v>52.208333333333336</v>
-      </c>
-      <c r="H19" s="23" t="str" cm="1">
-        <f t="array" ref="H19">_xlfn.IFS(G19&gt;=70,"Lulus",AND(G19&lt;70,G19&gt;=50),"Remedial",G19&lt;50,"Non-Peserta")</f>
+      <c r="I19" s="24">
+        <f t="shared" si="0"/>
+        <v>66.287222222222212</v>
+      </c>
+      <c r="J19" s="20" t="str" cm="1">
+        <f t="array" ref="J19">_xlfn.IFS(I19&gt;=70,"Lulus",AND(I19&lt;70,I19&gt;=50),"Remedial",I19&lt;50,"Non-Peserta")</f>
         <v>Remedial</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="26">
-        <f>Pertemuan1!G21*100</f>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="20">
+        <v>100</v>
+      </c>
+      <c r="D20" s="20">
+        <v>90</v>
+      </c>
+      <c r="E20" s="23">
+        <f>Kuis1!G21*100</f>
         <v>73</v>
       </c>
-      <c r="D20" s="26">
-        <f>Pertemuan2!G21*100</f>
+      <c r="F20" s="23">
+        <f>Kuis2!G21*100</f>
         <v>93</v>
       </c>
-      <c r="E20" s="26">
-        <f>Pertemuan3!O21</f>
+      <c r="G20" s="23">
+        <f>Kuis3!O21</f>
         <v>81.5</v>
       </c>
-      <c r="F20" s="26">
-        <f>Pertemuan4!N21</f>
+      <c r="H20" s="23">
+        <f>Kuis4!N21</f>
         <v>80.555555555555557</v>
       </c>
-      <c r="G20" s="27">
-        <f t="shared" si="0"/>
-        <v>82.013888888888886</v>
-      </c>
-      <c r="H20" s="23" t="str" cm="1">
-        <f t="array" ref="H20">_xlfn.IFS(G20&gt;=70,"Lulus",AND(G20&lt;70,G20&gt;=50),"Remedial",G20&lt;50,"Non-Peserta")</f>
+      <c r="I20" s="24">
+        <f t="shared" si="0"/>
+        <v>86.342592592592595</v>
+      </c>
+      <c r="J20" s="20" t="str" cm="1">
+        <f t="array" ref="J20">_xlfn.IFS(I20&gt;=70,"Lulus",AND(I20&lt;70,I20&gt;=50),"Remedial",I20&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="26">
-        <f>Pertemuan1!G22*100</f>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20">
+        <v>100</v>
+      </c>
+      <c r="D21" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E21" s="23">
+        <f>Kuis1!G22*100</f>
         <v>46</v>
       </c>
-      <c r="D21" s="26">
-        <f>Pertemuan2!G22*100</f>
+      <c r="F21" s="23">
+        <f>Kuis2!G22*100</f>
         <v>20</v>
       </c>
-      <c r="E21" s="26">
-        <f>Pertemuan3!O22</f>
-        <v>75</v>
-      </c>
-      <c r="F21" s="26">
-        <f>Pertemuan4!N22</f>
-        <v>75</v>
-      </c>
-      <c r="G21" s="27">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="H21" s="23" t="str" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(G21&gt;=70,"Lulus",AND(G21&lt;70,G21&gt;=50),"Remedial",G21&lt;50,"Non-Peserta")</f>
+      <c r="G21" s="23">
+        <f>Kuis3!O22</f>
+        <v>75</v>
+      </c>
+      <c r="H21" s="23">
+        <f>Kuis4!N22</f>
+        <v>75</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="0"/>
+        <v>67.481666666666669</v>
+      </c>
+      <c r="J21" s="20" t="str" cm="1">
+        <f t="array" ref="J21">_xlfn.IFS(I21&gt;=70,"Lulus",AND(I21&lt;70,I21&gt;=50),"Remedial",I21&lt;50,"Non-Peserta")</f>
         <v>Remedial</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="26">
-        <f>Pertemuan1!G23*100</f>
+      <c r="C22" s="20">
+        <v>100</v>
+      </c>
+      <c r="D22" s="20">
+        <v>80</v>
+      </c>
+      <c r="E22" s="23">
+        <f>Kuis1!G23*100</f>
         <v>60</v>
       </c>
-      <c r="D22" s="26">
-        <f>Pertemuan2!G23*100</f>
+      <c r="F22" s="23">
+        <f>Kuis2!G23*100</f>
         <v>66</v>
       </c>
-      <c r="E22" s="26">
-        <f>Pertemuan3!O23</f>
+      <c r="G22" s="23">
+        <f>Kuis3!O23</f>
         <v>81.5</v>
       </c>
-      <c r="F22" s="26">
-        <f>Pertemuan4!N23</f>
-        <v>75</v>
-      </c>
-      <c r="G22" s="27">
-        <f t="shared" si="0"/>
-        <v>70.625</v>
-      </c>
-      <c r="H22" s="23" t="str" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(G22&gt;=70,"Lulus",AND(G22&lt;70,G22&gt;=50),"Remedial",G22&lt;50,"Non-Peserta")</f>
+      <c r="H22" s="23">
+        <f>Kuis4!N23</f>
+        <v>75</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="0"/>
+        <v>77.083333333333329</v>
+      </c>
+      <c r="J22" s="20" t="str" cm="1">
+        <f t="array" ref="J22">_xlfn.IFS(I22&gt;=70,"Lulus",AND(I22&lt;70,I22&gt;=50),"Remedial",I22&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="26">
-        <f>Pertemuan1!G24*100</f>
+      <c r="C23" s="20">
+        <v>100</v>
+      </c>
+      <c r="D23" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E23" s="23">
+        <f>Kuis1!G24*100</f>
         <v>66</v>
       </c>
-      <c r="D23" s="26">
-        <f>Pertemuan2!G24*100</f>
+      <c r="F23" s="23">
+        <f>Kuis2!G24*100</f>
         <v>66</v>
       </c>
-      <c r="E23" s="26">
-        <f>Pertemuan3!O24</f>
+      <c r="G23" s="23">
+        <f>Kuis3!O24</f>
         <v>76</v>
       </c>
-      <c r="F23" s="26">
-        <f>Pertemuan4!N24</f>
-        <v>75</v>
-      </c>
-      <c r="G23" s="27">
-        <f t="shared" si="0"/>
-        <v>70.75</v>
-      </c>
-      <c r="H23" s="23" t="str" cm="1">
-        <f t="array" ref="H23">_xlfn.IFS(G23&gt;=70,"Lulus",AND(G23&lt;70,G23&gt;=50),"Remedial",G23&lt;50,"Non-Peserta")</f>
+      <c r="H23" s="23">
+        <f>Kuis4!N24</f>
+        <v>75</v>
+      </c>
+      <c r="I23" s="24">
+        <f t="shared" si="0"/>
+        <v>78.648333333333326</v>
+      </c>
+      <c r="J23" s="20" t="str" cm="1">
+        <f t="array" ref="J23">_xlfn.IFS(I23&gt;=70,"Lulus",AND(I23&lt;70,I23&gt;=50),"Remedial",I23&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="26">
-        <f>Pertemuan1!G25*100</f>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="20">
+        <v>100</v>
+      </c>
+      <c r="D24" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E24" s="23">
+        <f>Kuis1!G25*100</f>
         <v>80</v>
       </c>
-      <c r="D24" s="26">
-        <f>Pertemuan2!G25*100</f>
+      <c r="F24" s="23">
+        <f>Kuis2!G25*100</f>
         <v>66</v>
       </c>
-      <c r="E24" s="26">
-        <f>Pertemuan3!O25</f>
+      <c r="G24" s="23">
+        <f>Kuis3!O25</f>
         <v>76</v>
       </c>
-      <c r="F24" s="26">
-        <f>Pertemuan4!N25</f>
+      <c r="H24" s="23">
+        <f>Kuis4!N25</f>
         <v>76.666666666666671</v>
       </c>
-      <c r="G24" s="27">
-        <f t="shared" si="0"/>
-        <v>74.666666666666671</v>
-      </c>
-      <c r="H24" s="23" t="str" cm="1">
-        <f t="array" ref="H24">_xlfn.IFS(G24&gt;=70,"Lulus",AND(G24&lt;70,G24&gt;=50),"Remedial",G24&lt;50,"Non-Peserta")</f>
+      <c r="I24" s="24">
+        <f t="shared" si="0"/>
+        <v>81.259444444444441</v>
+      </c>
+      <c r="J24" s="20" t="str" cm="1">
+        <f t="array" ref="J24">_xlfn.IFS(I24&gt;=70,"Lulus",AND(I24&lt;70,I24&gt;=50),"Remedial",I24&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="26">
-        <f>Pertemuan1!G26*100</f>
+      <c r="C25" s="20">
+        <v>100</v>
+      </c>
+      <c r="D25" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E25" s="23">
+        <f>Kuis1!G26*100</f>
         <v>73</v>
       </c>
-      <c r="D25" s="26">
-        <f>Pertemuan2!G26*100</f>
+      <c r="F25" s="23">
+        <f>Kuis2!G26*100</f>
         <v>60</v>
       </c>
-      <c r="E25" s="26">
-        <f>Pertemuan3!O26</f>
+      <c r="G25" s="23">
+        <f>Kuis3!O26</f>
         <v>82.5</v>
       </c>
-      <c r="F25" s="26">
-        <f>Pertemuan4!N26</f>
-        <v>75</v>
-      </c>
-      <c r="G25" s="27">
-        <f t="shared" si="0"/>
-        <v>72.625</v>
-      </c>
-      <c r="H25" s="23" t="str" cm="1">
-        <f t="array" ref="H25">_xlfn.IFS(G25&gt;=70,"Lulus",AND(G25&lt;70,G25&gt;=50),"Remedial",G25&lt;50,"Non-Peserta")</f>
+      <c r="H25" s="23">
+        <f>Kuis4!N26</f>
+        <v>75</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" si="0"/>
+        <v>79.898333333333326</v>
+      </c>
+      <c r="J25" s="20" t="str" cm="1">
+        <f t="array" ref="J25">_xlfn.IFS(I25&gt;=70,"Lulus",AND(I25&lt;70,I25&gt;=50),"Remedial",I25&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="23" t="str" cm="1">
-        <f t="array" ref="H26">_xlfn.IFS(G26&gt;=70,"Lulus",AND(G26&lt;70,G26&gt;=50),"Remedial",G26&lt;50,"Non-Peserta")</f>
+      <c r="B26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="40" t="str" cm="1">
+        <f t="array" ref="J26">_xlfn.IFS(I26&gt;=70,"Lulus",AND(I26&lt;70,I26&gt;=50),"Remedial",I26&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="26">
-        <f>Pertemuan1!G28*100</f>
+      <c r="C27" s="20">
+        <v>100</v>
+      </c>
+      <c r="D27" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E27" s="23">
+        <f>Kuis1!G28*100</f>
         <v>60</v>
       </c>
-      <c r="D27" s="26">
-        <f>Pertemuan2!G28*100</f>
+      <c r="F27" s="23">
+        <f>Kuis2!G28*100</f>
         <v>40</v>
       </c>
-      <c r="E27" s="26">
-        <f>Pertemuan3!O28</f>
-        <v>75</v>
-      </c>
-      <c r="F27" s="26">
-        <f>Pertemuan4!N28</f>
-        <v>75</v>
-      </c>
-      <c r="G27" s="27">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-      <c r="H27" s="23" t="str" cm="1">
-        <f t="array" ref="H27">_xlfn.IFS(G27&gt;=70,"Lulus",AND(G27&lt;70,G27&gt;=50),"Remedial",G27&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G27" s="23">
+        <f>Kuis3!O28</f>
+        <v>75</v>
+      </c>
+      <c r="H27" s="23">
+        <f>Kuis4!N28</f>
+        <v>75</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="0"/>
+        <v>73.148333333333326</v>
+      </c>
+      <c r="J27" s="20" t="str" cm="1">
+        <f t="array" ref="J27">_xlfn.IFS(I27&gt;=70,"Lulus",AND(I27&lt;70,I27&gt;=50),"Remedial",I27&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="26">
-        <f>Pertemuan1!G29*100</f>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="20">
+        <v>85</v>
+      </c>
+      <c r="D28" s="20">
+        <v>80</v>
+      </c>
+      <c r="E28" s="23">
+        <f>Kuis1!G29*100</f>
         <v>53</v>
       </c>
-      <c r="D28" s="26">
-        <f>Pertemuan2!G29*100</f>
+      <c r="F28" s="23">
+        <f>Kuis2!G29*100</f>
         <v>66</v>
       </c>
-      <c r="E28" s="26">
-        <f>Pertemuan3!O29</f>
+      <c r="G28" s="23">
+        <f>Kuis3!O29</f>
         <v>77.5</v>
       </c>
-      <c r="F28" s="26">
-        <f>Pertemuan4!N29</f>
-        <v>75</v>
-      </c>
-      <c r="G28" s="27">
-        <f t="shared" si="0"/>
-        <v>67.875</v>
-      </c>
-      <c r="H28" s="23" t="str" cm="1">
-        <f t="array" ref="H28">_xlfn.IFS(G28&gt;=70,"Lulus",AND(G28&lt;70,G28&gt;=50),"Remedial",G28&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H28" s="23">
+        <f>Kuis4!N29</f>
+        <v>75</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="0"/>
+        <v>72.75</v>
+      </c>
+      <c r="J28" s="20" t="str" cm="1">
+        <f t="array" ref="J28">_xlfn.IFS(I28&gt;=70,"Lulus",AND(I28&lt;70,I28&gt;=50),"Remedial",I28&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="26">
-        <f>Pertemuan1!G30*100</f>
+      <c r="C29" s="20">
+        <v>75</v>
+      </c>
+      <c r="D29" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E29" s="23">
+        <f>Kuis1!G30*100</f>
         <v>80</v>
       </c>
-      <c r="D29" s="26">
-        <f>Pertemuan2!G30*100</f>
+      <c r="F29" s="23">
+        <f>Kuis2!G30*100</f>
         <v>60</v>
       </c>
-      <c r="E29" s="26">
-        <f>Pertemuan3!O30</f>
+      <c r="G29" s="23">
+        <f>Kuis3!O30</f>
         <v>75.5</v>
       </c>
-      <c r="F29" s="26">
-        <f>Pertemuan4!N30</f>
-        <v>75</v>
-      </c>
-      <c r="G29" s="27">
-        <f t="shared" si="0"/>
-        <v>72.625</v>
-      </c>
-      <c r="H29" s="23" t="str" cm="1">
-        <f t="array" ref="H29">_xlfn.IFS(G29&gt;=70,"Lulus",AND(G29&lt;70,G29&gt;=50),"Remedial",G29&lt;50,"Non-Peserta")</f>
+      <c r="H29" s="23">
+        <f>Kuis4!N30</f>
+        <v>75</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="0"/>
+        <v>75.731666666666669</v>
+      </c>
+      <c r="J29" s="20" t="str" cm="1">
+        <f t="array" ref="J29">_xlfn.IFS(I29&gt;=70,"Lulus",AND(I29&lt;70,I29&gt;=50),"Remedial",I29&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="23" t="str" cm="1">
-        <f t="array" ref="H30">_xlfn.IFS(G30&gt;=70,"Lulus",AND(G30&lt;70,G30&gt;=50),"Remedial",G30&lt;50,"Non-Peserta")</f>
+      <c r="B30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="40" t="str" cm="1">
+        <f t="array" ref="J30">_xlfn.IFS(I30&gt;=70,"Lulus",AND(I30&lt;70,I30&gt;=50),"Remedial",I30&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="26">
-        <f>Pertemuan1!G32*100</f>
+      <c r="C31" s="20">
+        <v>100</v>
+      </c>
+      <c r="D31" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="E31" s="23">
+        <f>Kuis1!G32*100</f>
         <v>73</v>
       </c>
-      <c r="D31" s="26">
-        <f>Pertemuan2!G32*100</f>
+      <c r="F31" s="23">
+        <f>Kuis2!G32*100</f>
         <v>86</v>
       </c>
-      <c r="E31" s="26">
-        <f>Pertemuan3!O32</f>
-        <v>75</v>
-      </c>
-      <c r="F31" s="26">
-        <f>Pertemuan4!N32</f>
-        <v>75</v>
-      </c>
-      <c r="G31" s="27">
-        <f t="shared" si="0"/>
-        <v>77.25</v>
-      </c>
-      <c r="H31" s="23" t="str" cm="1">
-        <f t="array" ref="H31">_xlfn.IFS(G31&gt;=70,"Lulus",AND(G31&lt;70,G31&gt;=50),"Remedial",G31&lt;50,"Non-Peserta")</f>
+      <c r="G31" s="23">
+        <f>Kuis3!O32</f>
+        <v>75</v>
+      </c>
+      <c r="H31" s="23">
+        <f>Kuis4!N32</f>
+        <v>75</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" si="0"/>
+        <v>82.981666666666669</v>
+      </c>
+      <c r="J31" s="20" t="str" cm="1">
+        <f t="array" ref="J31">_xlfn.IFS(I31&gt;=70,"Lulus",AND(I31&lt;70,I31&gt;=50),"Remedial",I31&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="22">
-        <f>COUNTIF($H$2:$H$31,B35)</f>
-        <v>13</v>
-      </c>
-      <c r="D35" s="43">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="43">
+        <f>COUNTIF($J$2:$J$31,B35)</f>
+        <v>22</v>
+      </c>
+      <c r="D35" s="38">
         <f>C35/$C$38</f>
-        <v>0.43333333333333335</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="22">
-        <f t="shared" ref="C36:C37" si="1">COUNTIF($H$2:$H$31,B36)</f>
-        <v>11</v>
-      </c>
-      <c r="D36" s="43">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="43">
+        <f t="shared" ref="C36:C37" si="1">COUNTIF($J$2:$J$31,B36)</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="38">
         <f t="shared" ref="D36:D38" si="2">C36/$C$38</f>
-        <v>0.36666666666666664</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="22">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="43">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="38">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="22">
+      <c r="B38" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="43">
         <f>SUM(C35:C37)</f>
         <v>30</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2012,8 +2141,8 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{DFF6C947-3695-4D65-BF57-64C62FF7697D}">
-            <xm:f>NOT(ISERROR(SEARCH($H$6,H2)))</xm:f>
-            <xm:f>$H$6</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($J$6,J2)))</xm:f>
+            <xm:f>$J$6</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2022,12 +2151,26 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:H30</xm:sqref>
+          <xm:sqref>J2:J30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{30B3DB6A-8CB9-497D-A88E-07E318485201}">
-            <xm:f>NOT(ISERROR(SEARCH($H$2,H2)))</xm:f>
-            <xm:f>$H$2</xm:f>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{A2BF0295-42E6-4F3C-86C8-F73AFDF426D1}">
+            <xm:f>NOT(ISERROR(SEARCH($J$3,G2)))</xm:f>
+            <xm:f>$J$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{30B3DB6A-8CB9-497D-A88E-07E318485201}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,G2)))</xm:f>
+            <xm:f>$J$2</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF006100"/>
@@ -2039,21 +2182,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A2BF0295-42E6-4F3C-86C8-F73AFDF426D1}">
-            <xm:f>NOT(ISERROR(SEARCH($H$3,H2)))</xm:f>
-            <xm:f>$H$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>G32:G1048576 J2:J31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2065,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395BD82A-1532-4BA8-91D6-3413518E7A50}">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:G31"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2079,22 +2208,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2102,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9">
         <v>10</v>
@@ -2114,7 +2243,7 @@
         <v>8880</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2134,7 +2263,7 @@
         <v>10210</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2142,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9">
         <v>10</v>
@@ -2154,7 +2283,7 @@
         <v>8840</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2162,7 +2291,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" s="9">
         <v>8</v>
@@ -2174,32 +2303,32 @@
         <v>6850</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="32">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="C7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="32">
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
+      <c r="C8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
@@ -2218,27 +2347,27 @@
         <v>6470</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="32">
+      <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9">
         <v>9</v>
@@ -2250,7 +2379,7 @@
         <v>7650</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2270,7 +2399,7 @@
         <v>8750</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2290,7 +2419,7 @@
         <v>9050</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2298,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D14" s="9">
         <v>11</v>
@@ -2310,7 +2439,7 @@
         <v>10000</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2318,7 +2447,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9">
         <v>9</v>
@@ -2330,27 +2459,27 @@
         <v>7330</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="32">
+      <c r="B16" s="28">
         <v>14</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17" s="9">
         <v>9</v>
@@ -2362,7 +2491,7 @@
         <v>7440</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2370,7 +2499,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9">
         <v>9</v>
@@ -2382,7 +2511,7 @@
         <v>8440</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2402,7 +2531,7 @@
         <v>10950</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2410,7 +2539,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9">
         <v>9</v>
@@ -2422,7 +2551,7 @@
         <v>8130</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2430,7 +2559,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9">
         <v>11</v>
@@ -2442,7 +2571,7 @@
         <v>9480</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2450,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9">
         <v>7</v>
@@ -2462,7 +2591,7 @@
         <v>6370</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2482,7 +2611,7 @@
         <v>7100</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2502,7 +2631,7 @@
         <v>8820</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2510,7 +2639,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D25" s="9">
         <v>12</v>
@@ -2522,7 +2651,7 @@
         <v>10970</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2542,20 +2671,20 @@
         <v>9630</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="32">
+      <c r="B27" s="28">
         <v>25</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
+      <c r="C27" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
@@ -2574,7 +2703,7 @@
         <v>7070</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2582,7 +2711,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D29" s="9">
         <v>8</v>
@@ -2594,7 +2723,7 @@
         <v>7020</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2614,20 +2743,20 @@
         <v>9950</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="32">
+      <c r="B31" s="28">
         <v>29</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
+      <c r="C31" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
@@ -2646,7 +2775,7 @@
         <v>9610</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2661,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEA1F71-D228-45F9-A386-89FC163D08B0}">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2676,22 +2805,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2699,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9">
         <v>14</v>
@@ -2711,7 +2840,7 @@
         <v>13810</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2731,7 +2860,7 @@
         <v>5650</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2739,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9">
         <v>8</v>
@@ -2751,7 +2880,7 @@
         <v>7410</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2759,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" s="9">
         <v>6</v>
@@ -2771,46 +2900,46 @@
         <v>4170</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="32">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="35">
+      <c r="C7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="31">
         <v>0</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>0</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <v>0</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="32">
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="C8" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="31">
         <v>0</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="31">
         <v>0</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="31">
         <v>0</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2831,26 +2960,26 @@
         <v>9260</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="32">
+      <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="C10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="31">
         <v>0</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="31">
         <v>0</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2859,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9">
         <v>8</v>
@@ -2871,7 +3000,7 @@
         <v>6310</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2891,7 +3020,7 @@
         <v>3210</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2911,27 +3040,27 @@
         <v>6860</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="37">
+      <c r="B14" s="33">
         <v>12</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0</v>
-      </c>
-      <c r="E14" s="39">
-        <v>0</v>
-      </c>
-      <c r="F14" s="39">
-        <v>0</v>
-      </c>
-      <c r="G14" s="39">
-        <v>0</v>
+      <c r="C14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="35">
+        <v>8</v>
+      </c>
+      <c r="E14" s="35">
+        <v>7</v>
+      </c>
+      <c r="F14" s="41">
+        <v>6180</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2939,7 +3068,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9">
         <v>12</v>
@@ -2951,26 +3080,26 @@
         <v>11590</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="32">
+      <c r="B16" s="28">
         <v>14</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="35">
+      <c r="C16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="31">
         <v>0</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <v>0</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="31">
         <v>0</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2979,7 +3108,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17" s="9">
         <v>8</v>
@@ -2991,7 +3120,7 @@
         <v>6180</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -2999,7 +3128,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9">
         <v>12</v>
@@ -3011,7 +3140,7 @@
         <v>8830</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3031,7 +3160,7 @@
         <v>8280</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3039,7 +3168,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9">
         <v>14</v>
@@ -3051,7 +3180,7 @@
         <v>14920</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3059,7 +3188,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9">
         <v>14</v>
@@ -3071,7 +3200,7 @@
         <v>13070</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3079,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9">
         <v>3</v>
@@ -3091,7 +3220,7 @@
         <v>2230</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3111,7 +3240,7 @@
         <v>7520</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3131,7 +3260,7 @@
         <v>7730</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3139,7 +3268,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D25" s="9">
         <v>10</v>
@@ -3151,7 +3280,7 @@
         <v>9160</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3171,26 +3300,26 @@
         <v>6420</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="32">
+      <c r="B27" s="28">
         <v>25</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="35">
+      <c r="C27" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="31">
         <v>0</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="31">
         <v>0</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="31">
         <v>0</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3211,7 +3340,7 @@
         <v>4790</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3219,7 +3348,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D29" s="9">
         <v>10</v>
@@ -3231,7 +3360,7 @@
         <v>7890</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="17"/>
@@ -3253,28 +3382,28 @@
         <v>7270</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="16"/>
     </row>
     <row r="31" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="32">
+      <c r="B31" s="28">
         <v>29</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="35">
+      <c r="C31" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="31">
         <v>0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="31">
         <v>0</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="31">
         <v>0</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="31">
         <v>0</v>
       </c>
       <c r="J31" s="17"/>
@@ -3297,7 +3426,7 @@
         <v>11560</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="16"/>
@@ -3309,18 +3438,18 @@
       <c r="K34" s="17"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="B36" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -3333,12 +3462,12 @@
         <v>6650</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15">
@@ -3351,12 +3480,12 @@
         <v>5830</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -3369,12 +3498,12 @@
         <v>5670</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15">
@@ -3387,7 +3516,7 @@
         <v>4940</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3397,7 +3526,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G32" numberStoredAsText="1"/>
+    <ignoredError sqref="G3:G13 G15:G32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3406,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3421,46 +3550,46 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
@@ -3468,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -3560,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>75</v>
@@ -3606,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>75</v>
@@ -3648,44 +3777,44 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
+      <c r="C7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="C8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
@@ -3738,9 +3867,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="28">
+        <v>29</v>
+      </c>
+      <c r="D10" s="25">
         <v>75</v>
       </c>
       <c r="E10" s="3">
@@ -3784,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
         <v>75</v>
@@ -3922,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5">
         <v>90</v>
@@ -3968,7 +4097,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4">
         <v>100</v>
@@ -4010,47 +4139,47 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="28">
-        <v>75</v>
-      </c>
-      <c r="E16" s="28">
-        <v>75</v>
-      </c>
-      <c r="F16" s="28">
-        <v>75</v>
-      </c>
-      <c r="G16" s="28">
-        <v>75</v>
-      </c>
-      <c r="H16" s="28">
-        <v>75</v>
-      </c>
-      <c r="I16" s="28">
-        <v>75</v>
-      </c>
-      <c r="J16" s="28">
-        <v>75</v>
-      </c>
-      <c r="K16" s="28">
-        <v>75</v>
-      </c>
-      <c r="L16" s="28">
-        <v>75</v>
-      </c>
-      <c r="M16" s="29">
-        <v>75</v>
-      </c>
-      <c r="N16" s="28">
+      <c r="C16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="25">
+        <v>75</v>
+      </c>
+      <c r="E16" s="25">
+        <v>75</v>
+      </c>
+      <c r="F16" s="25">
+        <v>75</v>
+      </c>
+      <c r="G16" s="25">
+        <v>75</v>
+      </c>
+      <c r="H16" s="25">
+        <v>75</v>
+      </c>
+      <c r="I16" s="25">
+        <v>75</v>
+      </c>
+      <c r="J16" s="25">
+        <v>75</v>
+      </c>
+      <c r="K16" s="25">
+        <v>75</v>
+      </c>
+      <c r="L16" s="25">
+        <v>75</v>
+      </c>
+      <c r="M16" s="26">
+        <v>75</v>
+      </c>
+      <c r="N16" s="25">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="25">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4060,7 +4189,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5">
         <v>85</v>
@@ -4106,7 +4235,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3">
         <v>75</v>
@@ -4198,7 +4327,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -4244,7 +4373,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>75</v>
@@ -4290,7 +4419,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>75</v>
@@ -4428,7 +4557,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3">
         <v>75</v>
@@ -4516,47 +4645,47 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="29">
+      <c r="B27" s="26">
         <v>25</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="28">
-        <v>75</v>
-      </c>
-      <c r="E27" s="28">
-        <v>75</v>
-      </c>
-      <c r="F27" s="28">
-        <v>75</v>
-      </c>
-      <c r="G27" s="28">
-        <v>75</v>
-      </c>
-      <c r="H27" s="28">
-        <v>75</v>
-      </c>
-      <c r="I27" s="28">
-        <v>75</v>
-      </c>
-      <c r="J27" s="28">
-        <v>75</v>
-      </c>
-      <c r="K27" s="28">
-        <v>75</v>
-      </c>
-      <c r="L27" s="28">
-        <v>75</v>
-      </c>
-      <c r="M27" s="29">
-        <v>75</v>
-      </c>
-      <c r="N27" s="28">
+      <c r="C27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="25">
+        <v>75</v>
+      </c>
+      <c r="E27" s="25">
+        <v>75</v>
+      </c>
+      <c r="F27" s="25">
+        <v>75</v>
+      </c>
+      <c r="G27" s="25">
+        <v>75</v>
+      </c>
+      <c r="H27" s="25">
+        <v>75</v>
+      </c>
+      <c r="I27" s="25">
+        <v>75</v>
+      </c>
+      <c r="J27" s="25">
+        <v>75</v>
+      </c>
+      <c r="K27" s="25">
+        <v>75</v>
+      </c>
+      <c r="L27" s="25">
+        <v>75</v>
+      </c>
+      <c r="M27" s="26">
+        <v>75</v>
+      </c>
+      <c r="N27" s="25">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="25">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4612,7 +4741,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D29" s="3">
         <v>75</v>
@@ -4700,47 +4829,47 @@
       </c>
     </row>
     <row r="31" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="29">
+      <c r="B31" s="26">
         <v>29</v>
       </c>
-      <c r="C31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="28">
-        <v>75</v>
-      </c>
-      <c r="E31" s="28">
-        <v>75</v>
-      </c>
-      <c r="F31" s="28">
-        <v>75</v>
-      </c>
-      <c r="G31" s="28">
-        <v>75</v>
-      </c>
-      <c r="H31" s="28">
-        <v>75</v>
-      </c>
-      <c r="I31" s="28">
-        <v>75</v>
-      </c>
-      <c r="J31" s="28">
-        <v>75</v>
-      </c>
-      <c r="K31" s="28">
-        <v>75</v>
-      </c>
-      <c r="L31" s="28">
-        <v>75</v>
-      </c>
-      <c r="M31" s="29">
-        <v>75</v>
-      </c>
-      <c r="N31" s="28">
+      <c r="C31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="25">
+        <v>75</v>
+      </c>
+      <c r="E31" s="25">
+        <v>75</v>
+      </c>
+      <c r="F31" s="25">
+        <v>75</v>
+      </c>
+      <c r="G31" s="25">
+        <v>75</v>
+      </c>
+      <c r="H31" s="25">
+        <v>75</v>
+      </c>
+      <c r="I31" s="25">
+        <v>75</v>
+      </c>
+      <c r="J31" s="25">
+        <v>75</v>
+      </c>
+      <c r="K31" s="25">
+        <v>75</v>
+      </c>
+      <c r="L31" s="25">
+        <v>75</v>
+      </c>
+      <c r="M31" s="26">
+        <v>75</v>
+      </c>
+      <c r="N31" s="25">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="25">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4804,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4819,43 +4948,43 @@
   <sheetData>
     <row r="2" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -4863,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -4947,7 +5076,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>75</v>
@@ -4990,7 +5119,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>75</v>
@@ -5029,42 +5158,42 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="C7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
     </row>
     <row r="8" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="C8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
@@ -5114,7 +5243,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>75</v>
@@ -5157,7 +5286,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
         <v>75</v>
@@ -5284,7 +5413,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3">
         <v>75</v>
@@ -5327,7 +5456,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3">
         <v>75</v>
@@ -5366,30 +5495,30 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="C16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
     </row>
     <row r="17" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
         <v>75</v>
@@ -5430,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3">
         <v>75</v>
@@ -5514,7 +5643,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -5557,7 +5686,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>75</v>
@@ -5600,7 +5729,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>75</v>
@@ -5729,7 +5858,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3">
         <v>75</v>
@@ -5811,44 +5940,44 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="29">
+      <c r="B27" s="26">
         <v>25</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="28">
-        <v>75</v>
-      </c>
-      <c r="E27" s="28">
-        <v>75</v>
-      </c>
-      <c r="F27" s="28">
-        <v>75</v>
-      </c>
-      <c r="G27" s="28">
-        <v>75</v>
-      </c>
-      <c r="H27" s="28">
-        <v>75</v>
-      </c>
-      <c r="I27" s="28">
-        <v>75</v>
-      </c>
-      <c r="J27" s="28">
-        <v>75</v>
-      </c>
-      <c r="K27" s="28">
-        <v>75</v>
-      </c>
-      <c r="L27" s="28">
-        <v>75</v>
-      </c>
-      <c r="M27" s="28">
+      <c r="C27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="25">
+        <v>75</v>
+      </c>
+      <c r="E27" s="25">
+        <v>75</v>
+      </c>
+      <c r="F27" s="25">
+        <v>75</v>
+      </c>
+      <c r="G27" s="25">
+        <v>75</v>
+      </c>
+      <c r="H27" s="25">
+        <v>75</v>
+      </c>
+      <c r="I27" s="25">
+        <v>75</v>
+      </c>
+      <c r="J27" s="25">
+        <v>75</v>
+      </c>
+      <c r="K27" s="25">
+        <v>75</v>
+      </c>
+      <c r="L27" s="25">
+        <v>75</v>
+      </c>
+      <c r="M27" s="25">
         <f t="shared" si="0"/>
         <v>675</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="25">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -5901,7 +6030,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D29" s="3">
         <v>75</v>
@@ -5983,23 +6112,23 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="29">
+      <c r="B31" s="26">
         <v>29</v>
       </c>
-      <c r="C31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+      <c r="C31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
     </row>
     <row r="32" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
@@ -6045,6 +6174,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N3:N32">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/Nilai/NILAI Peserta Pelatihan Data Analytics With Python JNE.xlsx
+++ b/Nilai/NILAI Peserta Pelatihan Data Analytics With Python JNE.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Py_JNE\Nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A430A9-4285-40B6-B3A4-792B0A39E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C35AD-2C9A-441C-A33B-1EFCA46AF4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nilai_Akhir" sheetId="6" r:id="rId1"/>
-    <sheet name="Kuis1" sheetId="5" r:id="rId2"/>
-    <sheet name="Kuis2" sheetId="4" r:id="rId3"/>
-    <sheet name="Kuis3" sheetId="2" r:id="rId4"/>
-    <sheet name="Kuis4" sheetId="3" r:id="rId5"/>
+    <sheet name="Pertemuan1" sheetId="5" r:id="rId2"/>
+    <sheet name="Pertemuan2" sheetId="4" r:id="rId3"/>
+    <sheet name="Pertemuan3" sheetId="2" r:id="rId4"/>
+    <sheet name="Pertemuan4" sheetId="3" r:id="rId5"/>
+    <sheet name="Pertemuan5" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,6 +38,33 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BD1ADDAA-8549-44F9-88D7-94FC17712051}</author>
+    <author>tc={2684247E-1032-437C-8776-DDB85CDE8F43}</author>
+  </authors>
+  <commentList>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{BD1ADDAA-8549-44F9-88D7-94FC17712051}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Perbaiki Kuis</t>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="1" shapeId="0" xr:uid="{2684247E-1032-437C-8776-DDB85CDE8F43}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Perbaiki nilai kuis</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="91">
   <si>
     <t>Nama</t>
   </si>
@@ -79,9 +107,6 @@
     <t>Koko Arif Budiman</t>
   </si>
   <si>
-    <t>Ntin</t>
-  </si>
-  <si>
     <t>Restu Kusumawati</t>
   </si>
   <si>
@@ -175,39 +200,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>93 %</t>
-  </si>
-  <si>
-    <t>80 %</t>
-  </si>
-  <si>
-    <t>86 %</t>
-  </si>
-  <si>
-    <t>66 %</t>
-  </si>
-  <si>
-    <t>73 %</t>
-  </si>
-  <si>
-    <t>53 %</t>
-  </si>
-  <si>
-    <t>60 %</t>
-  </si>
-  <si>
-    <t>46 %</t>
-  </si>
-  <si>
-    <t>40 %</t>
-  </si>
-  <si>
-    <t>26 %</t>
-  </si>
-  <si>
-    <t>20 %</t>
-  </si>
-  <si>
     <t>snah</t>
   </si>
   <si>
@@ -238,18 +230,9 @@
     <t>Jumlah</t>
   </si>
   <si>
-    <t>Tugas 1</t>
-  </si>
-  <si>
-    <t>Tugas 2</t>
-  </si>
-  <si>
     <t>Kuis 1</t>
   </si>
   <si>
-    <t>Kuis 2</t>
-  </si>
-  <si>
     <t>Kuis 3</t>
   </si>
   <si>
@@ -326,6 +309,60 @@
   </si>
   <si>
     <t>Non-Peserta</t>
+  </si>
+  <si>
+    <t>Kuis2</t>
+  </si>
+  <si>
+    <t>quiziz</t>
+  </si>
+  <si>
+    <t>rata-rata</t>
+  </si>
+  <si>
+    <t>Pertemuan1</t>
+  </si>
+  <si>
+    <t>Pertemuan2</t>
+  </si>
+  <si>
+    <t>Pertemuan3</t>
+  </si>
+  <si>
+    <t>Pertemuan4</t>
+  </si>
+  <si>
+    <t>Pertemuan5</t>
+  </si>
+  <si>
+    <t>Pengenalan Python</t>
+  </si>
+  <si>
+    <t>Konsep Dasar Python</t>
+  </si>
+  <si>
+    <t>Persiapan Data</t>
+  </si>
+  <si>
+    <t>Visualisasi Data</t>
+  </si>
+  <si>
+    <t>Visualisasi Data (Manajemen Resiko)</t>
+  </si>
+  <si>
+    <t>Suristin Adnan</t>
+  </si>
+  <si>
+    <t>Tugas1</t>
+  </si>
+  <si>
+    <t>Tugas2</t>
+  </si>
+  <si>
+    <t>Predikat Kelulusan</t>
+  </si>
+  <si>
+    <t>Nilai Rata-rata</t>
   </si>
 </sst>
 </file>
@@ -453,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -513,13 +550,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,9 +623,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,14 +672,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,6 +690,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -657,29 +735,23 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -700,6 +772,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Siregar Bakti" id="{B864D8EE-74B4-42CF-9548-1533D78A5EC0}" userId="S::siregar.bakti@matanauniversity.ac.id::ea4927ff-5271-407b-9905-1cdbcadb17d1" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,1205 +1075,1253 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E20" dT="2022-10-27T10:38:25.16" personId="{B864D8EE-74B4-42CF-9548-1533D78A5EC0}" id="{BD1ADDAA-8549-44F9-88D7-94FC17712051}">
+    <text>Perbaiki Kuis</text>
+  </threadedComment>
+  <threadedComment ref="D22" dT="2022-10-27T10:38:09.37" personId="{B864D8EE-74B4-42CF-9548-1533D78A5EC0}" id="{2684247E-1032-437C-8776-DDB85CDE8F43}">
+    <text>Perbaiki nilai kuis</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7630AB1-ADC7-47DA-89F1-6356D3A27066}">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7630AB1-ADC7-47DA-89F1-6356D3A27066}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.08984375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="20">
-        <v>100</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="23">
-        <f>Kuis1!G3*100</f>
-        <v>66</v>
-      </c>
-      <c r="F2" s="23">
-        <f>Kuis2!G3*100</f>
-        <v>93</v>
-      </c>
-      <c r="G2" s="23">
-        <f>Kuis3!O3</f>
-        <v>79.5</v>
-      </c>
-      <c r="H2" s="23">
-        <f>Kuis4!N3</f>
-        <v>83.75</v>
-      </c>
-      <c r="I2" s="24">
-        <f>AVERAGE(C2:H2)</f>
-        <v>84.45</v>
-      </c>
-      <c r="J2" s="20" t="str" cm="1">
-        <f t="array" ref="J2">_xlfn.IFS(I2&gt;=70,"Lulus",AND(I2&lt;70,I2&gt;=50),"Remedial",I2&lt;50,"Non-Peserta")</f>
-        <v>Lulus</v>
+      <c r="C2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20">
-        <v>100</v>
-      </c>
-      <c r="D3" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E3" s="23">
-        <f>Kuis1!G4*100</f>
-        <v>73</v>
-      </c>
-      <c r="F3" s="23">
-        <f>Kuis2!G4*100</f>
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="22">
+        <f>Pertemuan1!I3</f>
+        <v>83</v>
+      </c>
+      <c r="D3" s="22">
+        <f>Pertemuan2!I3</f>
+        <v>90.5</v>
+      </c>
+      <c r="E3" s="22">
+        <f>Pertemuan3!O3</f>
+        <v>79.5</v>
+      </c>
+      <c r="F3" s="22">
+        <f>Pertemuan4!N3</f>
+        <v>83.75</v>
       </c>
       <c r="G3" s="23">
-        <f>Kuis3!O4</f>
-        <v>75</v>
+        <f>Pertemuan5!H2</f>
+        <v>88.75</v>
       </c>
       <c r="H3" s="23">
-        <f>Kuis4!N4</f>
-        <v>75</v>
-      </c>
-      <c r="I3" s="24">
-        <f t="shared" ref="I3:I31" si="0">AVERAGE(C3:H3)</f>
-        <v>76.314999999999998</v>
-      </c>
-      <c r="J3" s="20" t="str" cm="1">
-        <f t="array" ref="J3">_xlfn.IFS(I3&gt;=70,"Lulus",AND(I3&lt;70,I3&gt;=50),"Remedial",I3&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C3:F3)</f>
+        <v>84.1875</v>
+      </c>
+      <c r="I3" s="19" t="str" cm="1">
+        <f t="array" ref="I3">_xlfn.IFS(H3&gt;=70,"Lulus",AND(H3&lt;70,H3&gt;=50),"Remedial",H3&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J3" s="42" t="str" cm="1">
+        <f t="array" ref="J3">_xlfn.IFS(AND(H3 &gt;= 70, H3 &lt; 75),"Baik",AND(H3 &gt;= 75, H3 &lt;=80),"Baik Sekali",AND(H3 &gt;80),"Unggul")</f>
+        <v>Unggul</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E4" s="23">
-        <f>Kuis1!G5*100</f>
-        <v>66</v>
-      </c>
-      <c r="F4" s="23">
-        <f>Kuis2!G5*100</f>
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="22">
+        <f>Pertemuan1!I4</f>
+        <v>86.5</v>
+      </c>
+      <c r="D4" s="22">
+        <f>Pertemuan2!I4</f>
+        <v>67.444999999999993</v>
+      </c>
+      <c r="E4" s="22">
+        <f>Pertemuan3!O4</f>
+        <v>75</v>
+      </c>
+      <c r="F4" s="22">
+        <f>Pertemuan4!N4</f>
+        <v>75</v>
       </c>
       <c r="G4" s="23">
-        <f>Kuis3!O5</f>
-        <v>75</v>
+        <f>Pertemuan5!H3</f>
+        <v>87.5</v>
       </c>
       <c r="H4" s="23">
-        <f>Kuis4!N5</f>
-        <v>75</v>
-      </c>
-      <c r="I4" s="24">
-        <f t="shared" si="0"/>
-        <v>71.578000000000003</v>
-      </c>
-      <c r="J4" s="20" t="str" cm="1">
-        <f t="array" ref="J4">_xlfn.IFS(I4&gt;=70,"Lulus",AND(I4&lt;70,I4&gt;=50),"Remedial",I4&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C4:F4)</f>
+        <v>75.986249999999998</v>
+      </c>
+      <c r="I4" s="19" t="str" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(H4&gt;=70,"Lulus",AND(H4&lt;70,H4&gt;=50),"Remedial",H4&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J4" s="42" t="str" cm="1">
+        <f t="array" ref="J4">_xlfn.IFS(AND(H4 &gt;= 70, H4 &lt; 75),"Baik",AND(H4 &gt;= 75, H4 &lt;=80),"Baik Sekali",AND(H4 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="22">
+        <f>Pertemuan1!I5</f>
+        <v>66</v>
+      </c>
+      <c r="D5" s="22">
+        <f>Pertemuan2!I5</f>
+        <v>70.944999999999993</v>
+      </c>
+      <c r="E5" s="22">
+        <f>Pertemuan3!O5</f>
+        <v>75</v>
+      </c>
+      <c r="F5" s="22">
+        <f>Pertemuan4!N5</f>
+        <v>75</v>
+      </c>
+      <c r="G5" s="23">
+        <f>Pertemuan5!H4</f>
+        <v>85</v>
+      </c>
+      <c r="H5" s="23">
+        <f>AVERAGE(C5:F5)</f>
+        <v>71.736249999999998</v>
+      </c>
+      <c r="I5" s="19" t="str" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(H5&gt;=70,"Lulus",AND(H5&lt;70,H5&gt;=50),"Remedial",H5&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+      <c r="J5" s="42" t="str" cm="1">
+        <f t="array" ref="J5">_xlfn.IFS(AND(H5 &gt;= 70, H5 &lt; 75),"Baik",AND(H5 &gt;= 75, H5 &lt;=80),"Baik Sekali",AND(H5 &gt;80),"Unggul")</f>
+        <v>Baik</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="20">
-        <v>100</v>
-      </c>
-      <c r="D5" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E5" s="23">
-        <f>Kuis1!G6*100</f>
-        <v>53</v>
-      </c>
-      <c r="F5" s="23">
-        <f>Kuis2!G6*100</f>
-        <v>40</v>
-      </c>
-      <c r="G5" s="23">
-        <f>Kuis3!O6</f>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="22">
+        <f>Pertemuan1!I6</f>
+        <v>76.5</v>
+      </c>
+      <c r="D6" s="22">
+        <f>Pertemuan2!I6</f>
+        <v>64.444999999999993</v>
+      </c>
+      <c r="E6" s="22">
+        <f>Pertemuan3!O6</f>
         <v>79</v>
       </c>
-      <c r="H5" s="23">
-        <f>Kuis4!N6</f>
-        <v>75</v>
-      </c>
-      <c r="I5" s="24">
-        <f t="shared" si="0"/>
-        <v>72.648333333333326</v>
-      </c>
-      <c r="J5" s="20" t="str" cm="1">
-        <f t="array" ref="J5">_xlfn.IFS(I5&gt;=70,"Lulus",AND(I5&lt;70,I5&gt;=50),"Remedial",I5&lt;50,"Non-Peserta")</f>
+      <c r="F6" s="22">
+        <f>Pertemuan4!N6</f>
+        <v>75</v>
+      </c>
+      <c r="G6" s="23">
+        <f>Pertemuan5!H5</f>
+        <v>91.25</v>
+      </c>
+      <c r="H6" s="23">
+        <f>AVERAGE(C6:F6)</f>
+        <v>73.736249999999998</v>
+      </c>
+      <c r="I6" s="19" t="str" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(H6&gt;=70,"Lulus",AND(H6&lt;70,H6&gt;=50),"Remedial",H6&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+      <c r="J6" s="42" t="str" cm="1">
+        <f t="array" ref="J6">_xlfn.IFS(AND(H6 &gt;= 70, H6 &lt; 75),"Baik",AND(H6 &gt;= 75, H6 &lt;=80),"Baik Sekali",AND(H6 &gt;80),"Unggul")</f>
+        <v>Baik</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="20" t="str" cm="1">
-        <f t="array" ref="J6">_xlfn.IFS(I6&gt;=70,"Lulus",AND(I6&lt;70,I6&gt;=50),"Remedial",I6&lt;50,"Non-Peserta")</f>
+      <c r="B7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="37" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(H7&gt;=70,"Lulus",AND(H7&lt;70,H7&gt;=50),"Remedial",H7&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+      <c r="J7" s="37" t="str">
+        <f>I7</f>
+        <v>Non-Peserta</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="37" t="str" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(H8&gt;=70,"Lulus",AND(H8&lt;70,H8&gt;=50),"Remedial",H8&lt;50,"Non-Peserta")</f>
+        <v>Non-Peserta</v>
+      </c>
+      <c r="J8" s="37" t="str">
+        <f>I8</f>
+        <v>Non-Peserta</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22">
+        <f>Pertemuan1!I9</f>
+        <v>64</v>
+      </c>
+      <c r="D9" s="22">
+        <f>Pertemuan2!I9</f>
+        <v>80</v>
+      </c>
+      <c r="E9" s="22">
+        <f>Pertemuan3!O9</f>
+        <v>78.5</v>
+      </c>
+      <c r="F9" s="22">
+        <f>Pertemuan4!N9</f>
+        <v>75</v>
+      </c>
+      <c r="G9" s="23">
+        <f>Pertemuan5!H8</f>
+        <v>90</v>
+      </c>
+      <c r="H9" s="23">
+        <f>AVERAGE(C9:F9)</f>
+        <v>74.375</v>
+      </c>
+      <c r="I9" s="19" t="str" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(H9&gt;=70,"Lulus",AND(H9&lt;70,H9&gt;=50),"Remedial",H9&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+      <c r="J9" s="42" t="str" cm="1">
+        <f t="array" ref="J9">_xlfn.IFS(AND(H9 &gt;= 70, H9 &lt; 75),"Baik",AND(H9 &gt;= 75, H9 &lt;=80),"Baik Sekali",AND(H9 &gt;80),"Unggul")</f>
+        <v>Baik</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="20" t="str" cm="1">
-        <f t="array" ref="J7">_xlfn.IFS(I7&gt;=70,"Lulus",AND(I7&lt;70,I7&gt;=50),"Remedial",I7&lt;50,"Non-Peserta")</f>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="37" t="str" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(H10&gt;=70,"Lulus",AND(H10&lt;70,H10&gt;=50),"Remedial",H10&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="20">
-        <v>75</v>
-      </c>
-      <c r="D8" s="20">
-        <v>80</v>
-      </c>
-      <c r="E8" s="23">
-        <f>Kuis1!G9*100</f>
-        <v>53</v>
-      </c>
-      <c r="F8" s="23">
-        <f>Kuis2!G9*100</f>
-        <v>80</v>
-      </c>
-      <c r="G8" s="23">
-        <f>Kuis3!O9</f>
-        <v>78.5</v>
-      </c>
-      <c r="H8" s="23">
-        <f>Kuis4!N9</f>
-        <v>75</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>73.583333333333329</v>
-      </c>
-      <c r="J8" s="20" t="str" cm="1">
-        <f t="array" ref="J8">_xlfn.IFS(I8&gt;=70,"Lulus",AND(I8&lt;70,I8&gt;=50),"Remedial",I8&lt;50,"Non-Peserta")</f>
-        <v>Lulus</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
-        <v>8</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="40" t="str" cm="1">
-        <f t="array" ref="J9">_xlfn.IFS(I9&gt;=70,"Lulus",AND(I9&lt;70,I9&gt;=50),"Remedial",I9&lt;50,"Non-Peserta")</f>
+      <c r="J10" s="43" t="str">
+        <f>I10</f>
         <v>Non-Peserta</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="20">
-        <v>100</v>
-      </c>
-      <c r="D10" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E10" s="23">
-        <f>Kuis1!G11*100</f>
-        <v>60</v>
-      </c>
-      <c r="F10" s="23">
-        <f>Kuis2!G11*100</f>
-        <v>53</v>
-      </c>
-      <c r="G10" s="23">
-        <f>Kuis3!O11</f>
-        <v>76</v>
-      </c>
-      <c r="H10" s="23">
-        <f>Kuis4!N11</f>
-        <v>78.125</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>76.002499999999998</v>
-      </c>
-      <c r="J10" s="20" t="str" cm="1">
-        <f t="array" ref="J10">_xlfn.IFS(I10&gt;=70,"Lulus",AND(I10&lt;70,I10&gt;=50),"Remedial",I10&lt;50,"Non-Peserta")</f>
-        <v>Lulus</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="20">
-        <v>100</v>
-      </c>
-      <c r="D11" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E11" s="23">
-        <f>Kuis1!G12*100</f>
-        <v>66</v>
-      </c>
-      <c r="F11" s="23">
-        <f>Kuis2!G12*100</f>
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="22">
+        <f>Pertemuan1!I11</f>
+        <v>80</v>
+      </c>
+      <c r="D11" s="22">
+        <f>Pertemuan2!I11</f>
+        <v>70.944999999999993</v>
+      </c>
+      <c r="E11" s="22">
+        <f>Pertemuan3!O11</f>
+        <v>76</v>
+      </c>
+      <c r="F11" s="22">
+        <f>Pertemuan4!N11</f>
+        <v>78.125</v>
       </c>
       <c r="G11" s="23">
-        <f>Kuis3!O12</f>
-        <v>75</v>
+        <f>Pertemuan5!H10</f>
+        <v>91.25</v>
       </c>
       <c r="H11" s="23">
-        <f>Kuis4!N12</f>
-        <v>75</v>
-      </c>
-      <c r="I11" s="24">
-        <f t="shared" si="0"/>
-        <v>71.814999999999998</v>
-      </c>
-      <c r="J11" s="20" t="str" cm="1">
-        <f t="array" ref="J11">_xlfn.IFS(I11&gt;=70,"Lulus",AND(I11&lt;70,I11&gt;=50),"Remedial",I11&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C11:F11)</f>
+        <v>76.267499999999998</v>
+      </c>
+      <c r="I11" s="19" t="str" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(H11&gt;=70,"Lulus",AND(H11&lt;70,H11&gt;=50),"Remedial",H11&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J11" s="42" t="str" cm="1">
+        <f t="array" ref="J11">_xlfn.IFS(AND(H11 &gt;= 70, H11 &lt; 75),"Baik",AND(H11 &gt;= 75, H11 &lt;=80),"Baik Sekali",AND(H11 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E12" s="23">
-        <f>Kuis1!G13*100</f>
-        <v>66</v>
-      </c>
-      <c r="F12" s="23">
-        <f>Kuis2!G13*100</f>
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="22">
+        <f>Pertemuan1!I12</f>
+        <v>83</v>
+      </c>
+      <c r="D12" s="22">
+        <f>Pertemuan2!I12</f>
+        <v>57.445</v>
+      </c>
+      <c r="E12" s="22">
+        <f>Pertemuan3!O12</f>
+        <v>75</v>
+      </c>
+      <c r="F12" s="22">
+        <f>Pertemuan4!N12</f>
+        <v>75</v>
       </c>
       <c r="G12" s="23">
-        <f>Kuis3!O13</f>
-        <v>82</v>
+        <f>Pertemuan5!H11</f>
+        <v>95</v>
       </c>
       <c r="H12" s="23">
-        <f>Kuis4!N13</f>
-        <v>75</v>
-      </c>
-      <c r="I12" s="24">
-        <f t="shared" si="0"/>
-        <v>74.378</v>
-      </c>
-      <c r="J12" s="20" t="str" cm="1">
-        <f t="array" ref="J12">_xlfn.IFS(I12&gt;=70,"Lulus",AND(I12&lt;70,I12&gt;=50),"Remedial",I12&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C12:F12)</f>
+        <v>72.611249999999998</v>
+      </c>
+      <c r="I12" s="19" t="str" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(H12&gt;=70,"Lulus",AND(H12&lt;70,H12&gt;=50),"Remedial",H12&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J12" s="42" t="str" cm="1">
+        <f t="array" ref="J12">_xlfn.IFS(AND(H12 &gt;= 70, H12 &lt; 75),"Baik",AND(H12 &gt;= 75, H12 &lt;=80),"Baik Sekali",AND(H12 &gt;80),"Unggul")</f>
+        <v>Baik</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="20">
-        <v>100</v>
-      </c>
-      <c r="D13" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E13" s="23">
-        <f>Kuis1!G14*100</f>
-        <v>73</v>
-      </c>
-      <c r="F13" s="23">
-        <f>Kuis2!G14*100</f>
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="22">
+        <f>Pertemuan1!I13</f>
+        <v>66</v>
+      </c>
+      <c r="D13" s="22">
+        <f>Pertemuan2!I13</f>
+        <v>74.444999999999993</v>
+      </c>
+      <c r="E13" s="22">
+        <f>Pertemuan3!O13</f>
+        <v>82</v>
+      </c>
+      <c r="F13" s="22">
+        <f>Pertemuan4!N13</f>
+        <v>75</v>
       </c>
       <c r="G13" s="23">
-        <f>Kuis3!O14</f>
-        <v>79</v>
+        <f>Pertemuan5!H12</f>
+        <v>95</v>
       </c>
       <c r="H13" s="23">
-        <f>Kuis4!N14</f>
-        <v>75</v>
-      </c>
-      <c r="I13" s="24">
-        <f t="shared" si="0"/>
-        <v>78.148333333333326</v>
-      </c>
-      <c r="J13" s="20" t="str" cm="1">
-        <f t="array" ref="J13">_xlfn.IFS(I13&gt;=70,"Lulus",AND(I13&lt;70,I13&gt;=50),"Remedial",I13&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C13:F13)</f>
+        <v>74.361249999999998</v>
+      </c>
+      <c r="I13" s="19" t="str" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(H13&gt;=70,"Lulus",AND(H13&lt;70,H13&gt;=50),"Remedial",H13&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J13" s="42" t="str" cm="1">
+        <f t="array" ref="J13">_xlfn.IFS(AND(H13 &gt;= 70, H13 &lt; 75),"Baik",AND(H13 &gt;= 75, H13 &lt;=80),"Baik Sekali",AND(H13 &gt;80),"Unggul")</f>
+        <v>Baik</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22">
+        <f>Pertemuan1!I14</f>
+        <v>86.5</v>
+      </c>
+      <c r="D14" s="22">
+        <f>Pertemuan2!I14</f>
+        <v>70.944999999999993</v>
+      </c>
+      <c r="E14" s="22">
+        <f>Pertemuan3!O14</f>
+        <v>79</v>
+      </c>
+      <c r="F14" s="22">
+        <f>Pertemuan4!N14</f>
+        <v>75</v>
+      </c>
+      <c r="G14" s="23">
+        <f>Pertemuan5!H13</f>
+        <v>91.25</v>
+      </c>
+      <c r="H14" s="23">
+        <f>AVERAGE(C14:F14)</f>
+        <v>77.861249999999998</v>
+      </c>
+      <c r="I14" s="19" t="str" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(H14&gt;=70,"Lulus",AND(H14&lt;70,H14&gt;=50),"Remedial",H14&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+      <c r="J14" s="42" t="str" cm="1">
+        <f t="array" ref="J14">_xlfn.IFS(AND(H14 &gt;= 70, H14 &lt; 75),"Baik",AND(H14 &gt;= 75, H14 &lt;=80),"Baik Sekali",AND(H14 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="20">
-        <v>100</v>
-      </c>
-      <c r="D14" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E14" s="23">
-        <f>Kuis1!G15*100</f>
-        <v>60</v>
-      </c>
-      <c r="F14" s="23">
-        <f>Kuis2!G15*100</f>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="22">
+        <f>Pertemuan1!I15</f>
         <v>80</v>
       </c>
-      <c r="G14" s="23">
-        <f>Kuis3!O15</f>
+      <c r="D15" s="22">
+        <f>Pertemuan2!I15</f>
+        <v>84.444999999999993</v>
+      </c>
+      <c r="E15" s="22">
+        <f>Pertemuan3!O15</f>
         <v>78</v>
       </c>
-      <c r="H14" s="23">
-        <f>Kuis4!N15</f>
-        <v>75</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="shared" si="0"/>
-        <v>80.314999999999998</v>
-      </c>
-      <c r="J14" s="20" t="str" cm="1">
-        <f t="array" ref="J14">_xlfn.IFS(I14&gt;=70,"Lulus",AND(I14&lt;70,I14&gt;=50),"Remedial",I14&lt;50,"Non-Peserta")</f>
+      <c r="F15" s="22">
+        <f>Pertemuan4!N15</f>
+        <v>75</v>
+      </c>
+      <c r="G15" s="23">
+        <f>Pertemuan5!H14</f>
+        <v>92.5</v>
+      </c>
+      <c r="H15" s="23">
+        <f>AVERAGE(C15:F15)</f>
+        <v>79.361249999999998</v>
+      </c>
+      <c r="I15" s="19" t="str" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(H15&gt;=70,"Lulus",AND(H15&lt;70,H15&gt;=50),"Remedial",H15&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26">
+      <c r="J15" s="42" t="str" cm="1">
+        <f t="array" ref="J15">_xlfn.IFS(AND(H15 &gt;= 70, H15 &lt; 75),"Baik",AND(H15 &gt;= 75, H15 &lt;=80),"Baik Sekali",AND(H15 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="24">
-        <v>0</v>
-      </c>
-      <c r="J15" s="40" t="str" cm="1">
-        <f t="array" ref="J15">_xlfn.IFS(I15&gt;=70,"Lulus",AND(I15&lt;70,I15&gt;=50),"Remedial",I15&lt;50,"Non-Peserta")</f>
+      <c r="B16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="37" t="str" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(H16&gt;=70,"Lulus",AND(H16&lt;70,H16&gt;=50),"Remedial",H16&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="20">
-        <v>100</v>
-      </c>
-      <c r="D16" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E16" s="23">
-        <f>Kuis1!G17*100</f>
-        <v>60</v>
-      </c>
-      <c r="F16" s="23">
-        <f>Kuis2!G17*100</f>
-        <v>53</v>
-      </c>
-      <c r="G16" s="23">
-        <f>Kuis3!O17</f>
-        <v>78</v>
-      </c>
-      <c r="H16" s="23">
-        <f>Kuis4!N17</f>
-        <v>81.875</v>
-      </c>
-      <c r="I16" s="24">
-        <f t="shared" si="0"/>
-        <v>76.960833333333326</v>
-      </c>
-      <c r="J16" s="20" t="str" cm="1">
-        <f t="array" ref="J16">_xlfn.IFS(I16&gt;=70,"Lulus",AND(I16&lt;70,I16&gt;=50),"Remedial",I16&lt;50,"Non-Peserta")</f>
-        <v>Lulus</v>
+      <c r="J16" s="43" t="str">
+        <f>I16</f>
+        <v>Non-Peserta</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="20">
-        <v>100</v>
-      </c>
-      <c r="D17" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E17" s="23">
-        <f>Kuis1!G18*100</f>
-        <v>60</v>
-      </c>
-      <c r="F17" s="23">
-        <f>Kuis2!G18*100</f>
+        <v>12</v>
+      </c>
+      <c r="C17" s="22">
+        <f>Pertemuan1!I17</f>
         <v>80</v>
       </c>
+      <c r="D17" s="22">
+        <f>Pertemuan2!I17</f>
+        <v>70.944999999999993</v>
+      </c>
+      <c r="E17" s="22">
+        <f>Pertemuan3!O17</f>
+        <v>78</v>
+      </c>
+      <c r="F17" s="22">
+        <f>Pertemuan4!N17</f>
+        <v>81.875</v>
+      </c>
       <c r="G17" s="23">
-        <f>Kuis3!O18</f>
-        <v>75</v>
+        <f>Pertemuan5!H16</f>
+        <v>92.5</v>
       </c>
       <c r="H17" s="23">
-        <f>Kuis4!N18</f>
-        <v>75</v>
-      </c>
-      <c r="I17" s="24">
-        <f t="shared" si="0"/>
-        <v>79.814999999999998</v>
-      </c>
-      <c r="J17" s="20" t="str" cm="1">
-        <f t="array" ref="J17">_xlfn.IFS(I17&gt;=70,"Lulus",AND(I17&lt;70,I17&gt;=50),"Remedial",I17&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C17:F17)</f>
+        <v>77.704999999999998</v>
+      </c>
+      <c r="I17" s="19" t="str" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(H17&gt;=70,"Lulus",AND(H17&lt;70,H17&gt;=50),"Remedial",H17&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J17" s="42" t="str" cm="1">
+        <f t="array" ref="J17">_xlfn.IFS(AND(H17 &gt;= 70, H17 &lt; 75),"Baik",AND(H17 &gt;= 75, H17 &lt;=80),"Baik Sekali",AND(H17 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="20">
-        <v>100</v>
-      </c>
-      <c r="D18" s="20">
+        <v>23</v>
+      </c>
+      <c r="C18" s="22">
+        <f>Pertemuan1!I18</f>
         <v>80</v>
       </c>
-      <c r="E18" s="23">
-        <f>Kuis1!G19*100</f>
-        <v>86</v>
-      </c>
-      <c r="F18" s="23">
-        <f>Kuis2!G19*100</f>
-        <v>73</v>
+      <c r="D18" s="22">
+        <f>Pertemuan2!I18</f>
+        <v>84.444999999999993</v>
+      </c>
+      <c r="E18" s="22">
+        <f>Pertemuan3!O18</f>
+        <v>75</v>
+      </c>
+      <c r="F18" s="22">
+        <f>Pertemuan4!N18</f>
+        <v>75</v>
       </c>
       <c r="G18" s="23">
-        <f>Kuis3!O19</f>
-        <v>79.5</v>
+        <f>Pertemuan5!H17</f>
+        <v>93.75</v>
       </c>
       <c r="H18" s="23">
-        <f>Kuis4!N19</f>
-        <v>80.625</v>
-      </c>
-      <c r="I18" s="24">
-        <f t="shared" si="0"/>
-        <v>83.1875</v>
-      </c>
-      <c r="J18" s="20" t="str" cm="1">
-        <f t="array" ref="J18">_xlfn.IFS(I18&gt;=70,"Lulus",AND(I18&lt;70,I18&gt;=50),"Remedial",I18&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C18:F18)</f>
+        <v>78.611249999999998</v>
+      </c>
+      <c r="I18" s="19" t="str" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(H18&gt;=70,"Lulus",AND(H18&lt;70,H18&gt;=50),"Remedial",H18&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J18" s="42" t="str" cm="1">
+        <f t="array" ref="J18">_xlfn.IFS(AND(H18 &gt;= 70, H18 &lt; 75),"Baik",AND(H18 &gt;= 75, H18 &lt;=80),"Baik Sekali",AND(H18 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="20">
-        <v>100</v>
-      </c>
-      <c r="D19" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E19" s="23">
-        <f>Kuis1!G20*100</f>
-        <v>60</v>
-      </c>
-      <c r="F19" s="23">
-        <f>Kuis2!G20*100</f>
+        <v>4</v>
+      </c>
+      <c r="C19" s="22">
+        <f>Pertemuan1!I19</f>
         <v>93</v>
       </c>
+      <c r="D19" s="22">
+        <f>Pertemuan2!I19</f>
+        <v>76.5</v>
+      </c>
+      <c r="E19" s="22">
+        <f>Pertemuan3!O19</f>
+        <v>79.5</v>
+      </c>
+      <c r="F19" s="22">
+        <f>Pertemuan4!N19</f>
+        <v>80.625</v>
+      </c>
       <c r="G19" s="23">
-        <f>Kuis3!O20</f>
-        <v>22.5</v>
+        <f>Pertemuan5!H18</f>
+        <v>91.25</v>
       </c>
       <c r="H19" s="23">
-        <f>Kuis4!N20</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="I19" s="24">
-        <f t="shared" si="0"/>
-        <v>66.287222222222212</v>
-      </c>
-      <c r="J19" s="20" t="str" cm="1">
-        <f t="array" ref="J19">_xlfn.IFS(I19&gt;=70,"Lulus",AND(I19&lt;70,I19&gt;=50),"Remedial",I19&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
+        <f>AVERAGE(C19:F19)</f>
+        <v>82.40625</v>
+      </c>
+      <c r="I19" s="19" t="str" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(H19&gt;=70,"Lulus",AND(H19&lt;70,H19&gt;=50),"Remedial",H19&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+      <c r="J19" s="42" t="str" cm="1">
+        <f t="array" ref="J19">_xlfn.IFS(AND(H19 &gt;= 70, H19 &lt; 75),"Baik",AND(H19 &gt;= 75, H19 &lt;=80),"Baik Sekali",AND(H19 &gt;80),"Unggul")</f>
+        <v>Unggul</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="20">
-        <v>100</v>
-      </c>
-      <c r="D20" s="20">
-        <v>90</v>
-      </c>
-      <c r="E20" s="23">
-        <f>Kuis1!G21*100</f>
-        <v>73</v>
-      </c>
-      <c r="F20" s="23">
-        <f>Kuis2!G21*100</f>
-        <v>93</v>
+        <v>20</v>
+      </c>
+      <c r="C20" s="22">
+        <f>Pertemuan1!I20</f>
+        <v>80</v>
+      </c>
+      <c r="D20" s="22">
+        <f>Pertemuan2!I20</f>
+        <v>90.944999999999993</v>
+      </c>
+      <c r="E20" s="52">
+        <f>Pertemuan3!O20</f>
+        <v>57.5</v>
+      </c>
+      <c r="F20" s="52">
+        <f>Pertemuan4!N20</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="G20" s="23">
-        <f>Kuis3!O21</f>
-        <v>81.5</v>
+        <f>Pertemuan5!H19</f>
+        <v>92.5</v>
       </c>
       <c r="H20" s="23">
-        <f>Kuis4!N21</f>
-        <v>80.555555555555557</v>
-      </c>
-      <c r="I20" s="24">
-        <f t="shared" si="0"/>
-        <v>86.342592592592595</v>
-      </c>
-      <c r="J20" s="20" t="str" cm="1">
-        <f t="array" ref="J20">_xlfn.IFS(I20&gt;=70,"Lulus",AND(I20&lt;70,I20&gt;=50),"Remedial",I20&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C20:F20)</f>
+        <v>71.694583333333327</v>
+      </c>
+      <c r="I20" s="19" t="str" cm="1">
+        <f t="array" ref="I20">_xlfn.IFS(H20&gt;=70,"Lulus",AND(H20&lt;70,H20&gt;=50),"Remedial",H20&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J20" s="42" t="str" cm="1">
+        <f t="array" ref="J20">_xlfn.IFS(AND(H20 &gt;= 70, H20 &lt; 75),"Baik",AND(H20 &gt;= 75, H20 &lt;=80),"Baik Sekali",AND(H20 &gt;80),"Unggul")</f>
+        <v>Baik</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="20">
-        <v>100</v>
-      </c>
-      <c r="D21" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E21" s="23">
-        <f>Kuis1!G22*100</f>
-        <v>46</v>
-      </c>
-      <c r="F21" s="23">
-        <f>Kuis2!G22*100</f>
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="22">
+        <f>Pertemuan1!I21</f>
+        <v>86.5</v>
+      </c>
+      <c r="D21" s="22">
+        <f>Pertemuan2!I21</f>
+        <v>91.5</v>
+      </c>
+      <c r="E21" s="22">
+        <f>Pertemuan3!O21</f>
+        <v>81.5</v>
+      </c>
+      <c r="F21" s="22">
+        <f>Pertemuan4!N21</f>
+        <v>80.555555555555557</v>
       </c>
       <c r="G21" s="23">
-        <f>Kuis3!O22</f>
-        <v>75</v>
+        <f>Pertemuan5!H20</f>
+        <v>97.5</v>
       </c>
       <c r="H21" s="23">
-        <f>Kuis4!N22</f>
-        <v>75</v>
-      </c>
-      <c r="I21" s="24">
-        <f t="shared" si="0"/>
-        <v>67.481666666666669</v>
-      </c>
-      <c r="J21" s="20" t="str" cm="1">
-        <f t="array" ref="J21">_xlfn.IFS(I21&gt;=70,"Lulus",AND(I21&lt;70,I21&gt;=50),"Remedial",I21&lt;50,"Non-Peserta")</f>
-        <v>Remedial</v>
+        <f>AVERAGE(C21:F21)</f>
+        <v>85.013888888888886</v>
+      </c>
+      <c r="I21" s="19" t="str" cm="1">
+        <f t="array" ref="I21">_xlfn.IFS(H21&gt;=70,"Lulus",AND(H21&lt;70,H21&gt;=50),"Remedial",H21&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+      <c r="J21" s="42" t="str" cm="1">
+        <f t="array" ref="J21">_xlfn.IFS(AND(H21 &gt;= 70, H21 &lt; 75),"Baik",AND(H21 &gt;= 75, H21 &lt;=80),"Baik Sekali",AND(H21 &gt;80),"Unggul")</f>
+        <v>Unggul</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="20">
-        <v>100</v>
-      </c>
-      <c r="D22" s="20">
-        <v>80</v>
-      </c>
-      <c r="E22" s="23">
-        <f>Kuis1!G23*100</f>
-        <v>60</v>
-      </c>
-      <c r="F22" s="23">
-        <f>Kuis2!G23*100</f>
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="C22" s="22">
+        <f>Pertemuan1!I22</f>
+        <v>73</v>
+      </c>
+      <c r="D22" s="22">
+        <f>Pertemuan2!I22</f>
+        <v>59.445</v>
+      </c>
+      <c r="E22" s="22">
+        <f>Pertemuan3!O22</f>
+        <v>75</v>
+      </c>
+      <c r="F22" s="22">
+        <f>Pertemuan4!N22</f>
+        <v>75</v>
       </c>
       <c r="G22" s="23">
-        <f>Kuis3!O23</f>
-        <v>81.5</v>
+        <f>Pertemuan5!H21</f>
+        <v>90</v>
       </c>
       <c r="H22" s="23">
-        <f>Kuis4!N23</f>
-        <v>75</v>
-      </c>
-      <c r="I22" s="24">
-        <f t="shared" si="0"/>
-        <v>77.083333333333329</v>
-      </c>
-      <c r="J22" s="20" t="str" cm="1">
-        <f t="array" ref="J22">_xlfn.IFS(I22&gt;=70,"Lulus",AND(I22&lt;70,I22&gt;=50),"Remedial",I22&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C22:F22)</f>
+        <v>70.611249999999998</v>
+      </c>
+      <c r="I22" s="19" t="str" cm="1">
+        <f t="array" ref="I22">_xlfn.IFS(H22&gt;=70,"Lulus",AND(H22&lt;70,H22&gt;=50),"Remedial",H22&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J22" s="42" t="str" cm="1">
+        <f t="array" ref="J22">_xlfn.IFS(AND(H22 &gt;= 70, H22 &lt; 75),"Baik",AND(H22 &gt;= 75, H22 &lt;=80),"Baik Sekali",AND(H22 &gt;80),"Unggul")</f>
+        <v>Baik</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="20">
-        <v>100</v>
-      </c>
-      <c r="D23" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E23" s="23">
-        <f>Kuis1!G24*100</f>
-        <v>66</v>
-      </c>
-      <c r="F23" s="23">
-        <f>Kuis2!G24*100</f>
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="C23" s="22">
+        <f>Pertemuan1!I23</f>
+        <v>80</v>
+      </c>
+      <c r="D23" s="22">
+        <f>Pertemuan2!I23</f>
+        <v>73</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22">
+        <f>Pertemuan4!N23</f>
+        <v>75</v>
       </c>
       <c r="G23" s="23">
-        <f>Kuis3!O24</f>
+        <f>Pertemuan5!H22</f>
+        <v>95</v>
+      </c>
+      <c r="H23" s="23">
+        <f>AVERAGE(C23:F23)</f>
         <v>76</v>
       </c>
-      <c r="H23" s="23">
-        <f>Kuis4!N24</f>
-        <v>75</v>
-      </c>
-      <c r="I23" s="24">
-        <f t="shared" si="0"/>
-        <v>78.648333333333326</v>
-      </c>
-      <c r="J23" s="20" t="str" cm="1">
-        <f t="array" ref="J23">_xlfn.IFS(I23&gt;=70,"Lulus",AND(I23&lt;70,I23&gt;=50),"Remedial",I23&lt;50,"Non-Peserta")</f>
+      <c r="I23" s="19" t="str" cm="1">
+        <f t="array" ref="I23">_xlfn.IFS(H23&gt;=70,"Lulus",AND(H23&lt;70,H23&gt;=50),"Remedial",H23&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J23" s="42" t="str" cm="1">
+        <f t="array" ref="J23">_xlfn.IFS(AND(H23 &gt;= 70, H23 &lt; 75),"Baik",AND(H23 &gt;= 75, H23 &lt;=80),"Baik Sekali",AND(H23 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="20">
-        <v>100</v>
-      </c>
-      <c r="D24" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E24" s="23">
-        <f>Kuis1!G25*100</f>
-        <v>80</v>
-      </c>
-      <c r="F24" s="23">
-        <f>Kuis2!G25*100</f>
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="22">
+        <f>Pertemuan1!I24</f>
+        <v>83</v>
+      </c>
+      <c r="D24" s="22">
+        <f>Pertemuan2!I24</f>
+        <v>77.444999999999993</v>
+      </c>
+      <c r="E24" s="22">
+        <f>Pertemuan3!O24</f>
+        <v>76</v>
+      </c>
+      <c r="F24" s="22">
+        <f>Pertemuan4!N24</f>
+        <v>75</v>
       </c>
       <c r="G24" s="23">
-        <f>Kuis3!O25</f>
-        <v>76</v>
+        <f>Pertemuan5!H23</f>
+        <v>91.25</v>
       </c>
       <c r="H24" s="23">
-        <f>Kuis4!N25</f>
-        <v>76.666666666666671</v>
-      </c>
-      <c r="I24" s="24">
-        <f t="shared" si="0"/>
-        <v>81.259444444444441</v>
-      </c>
-      <c r="J24" s="20" t="str" cm="1">
-        <f t="array" ref="J24">_xlfn.IFS(I24&gt;=70,"Lulus",AND(I24&lt;70,I24&gt;=50),"Remedial",I24&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C24:F24)</f>
+        <v>77.861249999999998</v>
+      </c>
+      <c r="I24" s="19" t="str" cm="1">
+        <f t="array" ref="I24">_xlfn.IFS(H24&gt;=70,"Lulus",AND(H24&lt;70,H24&gt;=50),"Remedial",H24&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J24" s="42" t="str" cm="1">
+        <f t="array" ref="J24">_xlfn.IFS(AND(H24 &gt;= 70, H24 &lt; 75),"Baik",AND(H24 &gt;= 75, H24 &lt;=80),"Baik Sekali",AND(H24 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="22">
+        <f>Pertemuan1!I25</f>
+        <v>90</v>
+      </c>
+      <c r="D25" s="22">
+        <f>Pertemuan2!I25</f>
+        <v>77.444999999999993</v>
+      </c>
+      <c r="E25" s="22">
+        <f>Pertemuan3!O25</f>
+        <v>76</v>
+      </c>
+      <c r="F25" s="22">
+        <f>Pertemuan4!N25</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G25" s="23">
+        <f>Pertemuan5!H24</f>
+        <v>95</v>
+      </c>
+      <c r="H25" s="23">
+        <f>AVERAGE(C25:F25)</f>
+        <v>80.02791666666667</v>
+      </c>
+      <c r="I25" s="19" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(H25&gt;=70,"Lulus",AND(H25&lt;70,H25&gt;=50),"Remedial",H25&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+      <c r="J25" s="42" t="str" cm="1">
+        <f t="array" ref="J25">_xlfn.IFS(AND(H25 &gt;= 70, H25 &lt; 75),"Baik",AND(H25 &gt;= 75, H25 &lt;=80),"Baik Sekali",AND(H25 &gt;80),"Unggul")</f>
+        <v>Unggul</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="20">
-        <v>100</v>
-      </c>
-      <c r="D25" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E25" s="23">
-        <f>Kuis1!G26*100</f>
-        <v>73</v>
-      </c>
-      <c r="F25" s="23">
-        <f>Kuis2!G26*100</f>
-        <v>60</v>
-      </c>
-      <c r="G25" s="23">
-        <f>Kuis3!O26</f>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="22">
+        <f>Pertemuan1!I26</f>
+        <v>86.5</v>
+      </c>
+      <c r="D26" s="22">
+        <f>Pertemuan2!I26</f>
+        <v>74.444999999999993</v>
+      </c>
+      <c r="E26" s="22">
+        <f>Pertemuan3!O26</f>
         <v>82.5</v>
       </c>
-      <c r="H25" s="23">
-        <f>Kuis4!N26</f>
-        <v>75</v>
-      </c>
-      <c r="I25" s="24">
-        <f t="shared" si="0"/>
-        <v>79.898333333333326</v>
-      </c>
-      <c r="J25" s="20" t="str" cm="1">
-        <f t="array" ref="J25">_xlfn.IFS(I25&gt;=70,"Lulus",AND(I25&lt;70,I25&gt;=50),"Remedial",I25&lt;50,"Non-Peserta")</f>
+      <c r="F26" s="22">
+        <f>Pertemuan4!N26</f>
+        <v>75</v>
+      </c>
+      <c r="G26" s="23">
+        <f>Pertemuan5!H25</f>
+        <v>90</v>
+      </c>
+      <c r="H26" s="23">
+        <f>AVERAGE(C26:F26)</f>
+        <v>79.611249999999998</v>
+      </c>
+      <c r="I26" s="19" t="str" cm="1">
+        <f t="array" ref="I26">_xlfn.IFS(H26&gt;=70,"Lulus",AND(H26&lt;70,H26&gt;=50),"Remedial",H26&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="26">
+      <c r="J26" s="42" t="str" cm="1">
+        <f t="array" ref="J26">_xlfn.IFS(AND(H26 &gt;= 70, H26 &lt; 75),"Baik",AND(H26 &gt;= 75, H26 &lt;=80),"Baik Sekali",AND(H26 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="40" t="str" cm="1">
-        <f t="array" ref="J26">_xlfn.IFS(I26&gt;=70,"Lulus",AND(I26&lt;70,I26&gt;=50),"Remedial",I26&lt;50,"Non-Peserta")</f>
+      <c r="B27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="37" t="str" cm="1">
+        <f t="array" ref="I27">_xlfn.IFS(H27&gt;=70,"Lulus",AND(H27&lt;70,H27&gt;=50),"Remedial",H27&lt;50,"Non-Peserta")</f>
         <v>Non-Peserta</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="20">
-        <v>100</v>
-      </c>
-      <c r="D27" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E27" s="23">
-        <f>Kuis1!G28*100</f>
-        <v>60</v>
-      </c>
-      <c r="F27" s="23">
-        <f>Kuis2!G28*100</f>
-        <v>40</v>
-      </c>
-      <c r="G27" s="23">
-        <f>Kuis3!O28</f>
-        <v>75</v>
-      </c>
-      <c r="H27" s="23">
-        <f>Kuis4!N28</f>
-        <v>75</v>
-      </c>
-      <c r="I27" s="24">
-        <f t="shared" si="0"/>
-        <v>73.148333333333326</v>
-      </c>
-      <c r="J27" s="20" t="str" cm="1">
-        <f t="array" ref="J27">_xlfn.IFS(I27&gt;=70,"Lulus",AND(I27&lt;70,I27&gt;=50),"Remedial",I27&lt;50,"Non-Peserta")</f>
-        <v>Lulus</v>
+      <c r="J27" s="43" t="str">
+        <f>I27</f>
+        <v>Non-Peserta</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="20">
-        <v>85</v>
-      </c>
-      <c r="D28" s="20">
+        <v>7</v>
+      </c>
+      <c r="C28" s="22">
+        <f>Pertemuan1!I28</f>
         <v>80</v>
       </c>
-      <c r="E28" s="23">
-        <f>Kuis1!G29*100</f>
-        <v>53</v>
-      </c>
-      <c r="F28" s="23">
-        <f>Kuis2!G29*100</f>
-        <v>66</v>
+      <c r="D28" s="22">
+        <f>Pertemuan2!I28</f>
+        <v>64.444999999999993</v>
+      </c>
+      <c r="E28" s="22">
+        <f>Pertemuan3!O28</f>
+        <v>75</v>
+      </c>
+      <c r="F28" s="22">
+        <f>Pertemuan4!N28</f>
+        <v>75</v>
       </c>
       <c r="G28" s="23">
-        <f>Kuis3!O29</f>
-        <v>77.5</v>
+        <f>Pertemuan5!H27</f>
+        <v>0</v>
       </c>
       <c r="H28" s="23">
-        <f>Kuis4!N29</f>
-        <v>75</v>
-      </c>
-      <c r="I28" s="24">
-        <f t="shared" si="0"/>
-        <v>72.75</v>
-      </c>
-      <c r="J28" s="20" t="str" cm="1">
-        <f t="array" ref="J28">_xlfn.IFS(I28&gt;=70,"Lulus",AND(I28&lt;70,I28&gt;=50),"Remedial",I28&lt;50,"Non-Peserta")</f>
+        <f>AVERAGE(C28:F28)</f>
+        <v>73.611249999999998</v>
+      </c>
+      <c r="I28" s="19" t="str" cm="1">
+        <f t="array" ref="I28">_xlfn.IFS(H28&gt;=70,"Lulus",AND(H28&lt;70,H28&gt;=50),"Remedial",H28&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
+      </c>
+      <c r="J28" s="42" t="str" cm="1">
+        <f t="array" ref="J28">_xlfn.IFS(AND(H28 &gt;= 70, H28 &lt; 75),"Baik",AND(H28 &gt;= 75, H28 &lt;=80),"Baik Sekali",AND(H28 &gt;80),"Unggul")</f>
+        <v>Baik</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="22">
+        <f>Pertemuan1!I29</f>
+        <v>69</v>
+      </c>
+      <c r="D29" s="22">
+        <f>Pertemuan2!I29</f>
+        <v>73</v>
+      </c>
+      <c r="E29" s="22">
+        <f>Pertemuan3!O29</f>
+        <v>77.5</v>
+      </c>
+      <c r="F29" s="22">
+        <f>Pertemuan4!N29</f>
+        <v>75</v>
+      </c>
+      <c r="G29" s="23">
+        <f>Pertemuan5!H28</f>
+        <v>91.25</v>
+      </c>
+      <c r="H29" s="23">
+        <f>AVERAGE(C29:F29)</f>
+        <v>73.625</v>
+      </c>
+      <c r="I29" s="19" t="str" cm="1">
+        <f t="array" ref="I29">_xlfn.IFS(H29&gt;=70,"Lulus",AND(H29&lt;70,H29&gt;=50),"Remedial",H29&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+      <c r="J29" s="42" t="str" cm="1">
+        <f t="array" ref="J29">_xlfn.IFS(AND(H29 &gt;= 70, H29 &lt; 75),"Baik",AND(H29 &gt;= 75, H29 &lt;=80),"Baik Sekali",AND(H29 &gt;80),"Unggul")</f>
+        <v>Baik</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="22">
+        <f>Pertemuan1!I30</f>
+        <v>77.5</v>
+      </c>
+      <c r="D30" s="22">
+        <f>Pertemuan2!I30</f>
+        <v>74.444999999999993</v>
+      </c>
+      <c r="E30" s="22">
+        <f>Pertemuan3!O30</f>
+        <v>75.5</v>
+      </c>
+      <c r="F30" s="22">
+        <f>Pertemuan4!N30</f>
+        <v>75</v>
+      </c>
+      <c r="G30" s="23">
+        <f>Pertemuan5!H29</f>
+        <v>91.25</v>
+      </c>
+      <c r="H30" s="23">
+        <f>AVERAGE(C30:F30)</f>
+        <v>75.611249999999998</v>
+      </c>
+      <c r="I30" s="19" t="str" cm="1">
+        <f t="array" ref="I30">_xlfn.IFS(H30&gt;=70,"Lulus",AND(H30&lt;70,H30&gt;=50),"Remedial",H30&lt;50,"Non-Peserta")</f>
+        <v>Lulus</v>
+      </c>
+      <c r="J30" s="42" t="str" cm="1">
+        <f t="array" ref="J30">_xlfn.IFS(AND(H30 &gt;= 70, H30 &lt; 75),"Baik",AND(H30 &gt;= 75, H30 &lt;=80),"Baik Sekali",AND(H30 &gt;80),"Unggul")</f>
+        <v>Baik Sekali</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="25">
+        <v>29</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="37" t="str" cm="1">
+        <f t="array" ref="I31">_xlfn.IFS(H31&gt;=70,"Lulus",AND(H31&lt;70,H31&gt;=50),"Remedial",H31&lt;50,"Non-Peserta")</f>
+        <v>Non-Peserta</v>
+      </c>
+      <c r="J31" s="43" t="str">
+        <f>I31</f>
+        <v>Non-Peserta</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="20">
-        <v>75</v>
-      </c>
-      <c r="D29" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E29" s="23">
-        <f>Kuis1!G30*100</f>
-        <v>80</v>
-      </c>
-      <c r="F29" s="23">
-        <f>Kuis2!G30*100</f>
-        <v>60</v>
-      </c>
-      <c r="G29" s="23">
-        <f>Kuis3!O30</f>
-        <v>75.5</v>
-      </c>
-      <c r="H29" s="23">
-        <f>Kuis4!N30</f>
-        <v>75</v>
-      </c>
-      <c r="I29" s="24">
-        <f t="shared" si="0"/>
-        <v>75.731666666666669</v>
-      </c>
-      <c r="J29" s="20" t="str" cm="1">
-        <f t="array" ref="J29">_xlfn.IFS(I29&gt;=70,"Lulus",AND(I29&lt;70,I29&gt;=50),"Remedial",I29&lt;50,"Non-Peserta")</f>
+      <c r="C32" s="22">
+        <f>Pertemuan1!I32</f>
+        <v>86.5</v>
+      </c>
+      <c r="D32" s="22">
+        <f>Pertemuan2!I32</f>
+        <v>87.444999999999993</v>
+      </c>
+      <c r="E32" s="22">
+        <f>Pertemuan3!O32</f>
+        <v>75</v>
+      </c>
+      <c r="F32" s="22">
+        <f>Pertemuan4!N32</f>
+        <v>75</v>
+      </c>
+      <c r="G32" s="23">
+        <f>Pertemuan5!H31</f>
+        <v>95</v>
+      </c>
+      <c r="H32" s="23">
+        <f>AVERAGE(C32:F32)</f>
+        <v>80.986249999999998</v>
+      </c>
+      <c r="I32" s="19" t="str" cm="1">
+        <f t="array" ref="I32">_xlfn.IFS(H32&gt;=70,"Lulus",AND(H32&lt;70,H32&gt;=50),"Remedial",H32&lt;50,"Non-Peserta")</f>
         <v>Lulus</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="26">
-        <v>29</v>
-      </c>
-      <c r="B30" s="26" t="s">
+      <c r="J32" s="42" t="str" cm="1">
+        <f t="array" ref="J32">_xlfn.IFS(AND(H32 &gt;= 70, H32 &lt; 75),"Baik",AND(H32 &gt;= 75, H32 &lt;=80),"Baik Sekali",AND(H32 &gt;80),"Unggul")</f>
+        <v>Unggul</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="40">
+        <f>COUNTIF($I$3:$I$32,B36)</f>
+        <v>24</v>
+      </c>
+      <c r="D36" s="36">
+        <f>C36/$C$39</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="40">
+        <f>COUNTIF($I$3:$I$32,B37)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <f t="shared" ref="D37:D39" si="0">C37/$C$39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="40">
+        <f>COUNTIF($I$3:$I$32,B38)</f>
+        <v>6</v>
+      </c>
+      <c r="D38" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="40">
+        <f>SUM(C36:C38)</f>
         <v>30</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="40" t="str" cm="1">
-        <f t="array" ref="J30">_xlfn.IFS(I30&gt;=70,"Lulus",AND(I30&lt;70,I30&gt;=50),"Remedial",I30&lt;50,"Non-Peserta")</f>
-        <v>Non-Peserta</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="20">
-        <v>100</v>
-      </c>
-      <c r="D31" s="20">
-        <v>88.89</v>
-      </c>
-      <c r="E31" s="23">
-        <f>Kuis1!G32*100</f>
-        <v>73</v>
-      </c>
-      <c r="F31" s="23">
-        <f>Kuis2!G32*100</f>
-        <v>86</v>
-      </c>
-      <c r="G31" s="23">
-        <f>Kuis3!O32</f>
-        <v>75</v>
-      </c>
-      <c r="H31" s="23">
-        <f>Kuis4!N32</f>
-        <v>75</v>
-      </c>
-      <c r="I31" s="24">
-        <f t="shared" si="0"/>
-        <v>82.981666666666669</v>
-      </c>
-      <c r="J31" s="20" t="str" cm="1">
-        <f t="array" ref="J31">_xlfn.IFS(I31&gt;=70,"Lulus",AND(I31&lt;70,I31&gt;=50),"Remedial",I31&lt;50,"Non-Peserta")</f>
-        <v>Lulus</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="43">
-        <f>COUNTIF($J$2:$J$31,B35)</f>
-        <v>22</v>
-      </c>
-      <c r="D35" s="38">
-        <f>C35/$C$38</f>
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="43">
-        <f t="shared" ref="C36:C37" si="1">COUNTIF($J$2:$J$31,B36)</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="38">
-        <f t="shared" ref="D36:D38" si="2">C36/$C$38</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="43">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D37" s="38">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="43">
-        <f>SUM(C35:C37)</f>
-        <v>30</v>
-      </c>
-      <c r="D38" s="38">
-        <f t="shared" si="2"/>
+      <c r="D39" s="36">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{DFF6C947-3695-4D65-BF57-64C62FF7697D}">
-            <xm:f>NOT(ISERROR(SEARCH($J$6,J2)))</xm:f>
-            <xm:f>$J$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J2:J30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{A2BF0295-42E6-4F3C-86C8-F73AFDF426D1}">
-            <xm:f>NOT(ISERROR(SEARCH($J$3,G2)))</xm:f>
-            <xm:f>$J$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{30B3DB6A-8CB9-497D-A88E-07E318485201}">
-            <xm:f>NOT(ISERROR(SEARCH($J$2,G2)))</xm:f>
-            <xm:f>$J$2</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G32:G1048576 J2:J31</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395BD82A-1532-4BA8-91D6-3413518E7A50}">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2203,35 +2329,41 @@
     <col min="3" max="3" width="26.81640625" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9">
         <v>10</v>
@@ -2242,11 +2374,18 @@
       <c r="F3" s="9">
         <v>8880</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="46">
+        <v>66</v>
+      </c>
+      <c r="H3" s="42">
+        <v>100</v>
+      </c>
+      <c r="I3" s="49">
+        <f>AVERAGE(G3:H3)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -2262,16 +2401,23 @@
       <c r="F4" s="9">
         <v>10210</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="46">
+        <v>73</v>
+      </c>
+      <c r="H4" s="42">
+        <v>100</v>
+      </c>
+      <c r="I4" s="49">
+        <f t="shared" ref="I4:I32" si="0">AVERAGE(G4:H4)</f>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9">
         <v>10</v>
@@ -2282,16 +2428,21 @@
       <c r="F5" s="9">
         <v>8840</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="46">
+        <v>66</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="49">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="9">
         <v>8</v>
@@ -2302,35 +2453,46 @@
       <c r="F6" s="9">
         <v>6850</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="28">
+      <c r="G6" s="46">
+        <v>53</v>
+      </c>
+      <c r="H6" s="42">
+        <v>100</v>
+      </c>
+      <c r="I6" s="49">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="28">
+      <c r="C7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -2346,28 +2508,37 @@
       <c r="F9" s="9">
         <v>6470</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="28">
+      <c r="G9" s="46">
+        <v>53</v>
+      </c>
+      <c r="H9" s="42">
+        <v>75</v>
+      </c>
+      <c r="I9" s="49">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9">
         <v>9</v>
@@ -2378,11 +2549,18 @@
       <c r="F11" s="9">
         <v>7650</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="46">
+        <v>60</v>
+      </c>
+      <c r="H11" s="42">
+        <v>100</v>
+      </c>
+      <c r="I11" s="49">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -2398,16 +2576,23 @@
       <c r="F12" s="9">
         <v>8750</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="46">
+        <v>66</v>
+      </c>
+      <c r="H12" s="42">
+        <v>100</v>
+      </c>
+      <c r="I12" s="49">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="9">
         <v>10</v>
@@ -2418,16 +2603,21 @@
       <c r="F13" s="9">
         <v>9050</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G13" s="46">
+        <v>66</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="49">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="9">
         <v>11</v>
@@ -2438,16 +2628,23 @@
       <c r="F14" s="9">
         <v>10000</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G14" s="46">
+        <v>73</v>
+      </c>
+      <c r="H14" s="42">
+        <v>100</v>
+      </c>
+      <c r="I14" s="49">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9">
         <v>9</v>
@@ -2458,28 +2655,37 @@
       <c r="F15" s="9">
         <v>7330</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="28">
+      <c r="G15" s="46">
+        <v>60</v>
+      </c>
+      <c r="H15" s="42">
+        <v>100</v>
+      </c>
+      <c r="I15" s="49">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="27">
         <v>14</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
         <v>9</v>
@@ -2490,16 +2696,23 @@
       <c r="F17" s="9">
         <v>7440</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G17" s="46">
+        <v>60</v>
+      </c>
+      <c r="H17" s="42">
+        <v>100</v>
+      </c>
+      <c r="I17" s="49">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="9">
         <v>9</v>
@@ -2510,11 +2723,18 @@
       <c r="F18" s="9">
         <v>8440</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G18" s="46">
+        <v>60</v>
+      </c>
+      <c r="H18" s="42">
+        <v>100</v>
+      </c>
+      <c r="I18" s="49">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -2530,16 +2750,23 @@
       <c r="F19" s="9">
         <v>10950</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="46">
+        <v>86</v>
+      </c>
+      <c r="H19" s="42">
+        <v>100</v>
+      </c>
+      <c r="I19" s="49">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="9">
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9">
         <v>9</v>
@@ -2550,16 +2777,23 @@
       <c r="F20" s="9">
         <v>8130</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G20" s="46">
+        <v>60</v>
+      </c>
+      <c r="H20" s="42">
+        <v>100</v>
+      </c>
+      <c r="I20" s="49">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9">
         <v>11</v>
@@ -2570,16 +2804,23 @@
       <c r="F21" s="9">
         <v>9480</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G21" s="46">
+        <v>73</v>
+      </c>
+      <c r="H21" s="42">
+        <v>100</v>
+      </c>
+      <c r="I21" s="49">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" s="9">
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="9">
         <v>7</v>
@@ -2590,16 +2831,23 @@
       <c r="F22" s="9">
         <v>6370</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G22" s="46">
+        <v>46</v>
+      </c>
+      <c r="H22" s="42">
+        <v>100</v>
+      </c>
+      <c r="I22" s="49">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="9">
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D23" s="9">
         <v>9</v>
@@ -2610,16 +2858,23 @@
       <c r="F23" s="9">
         <v>7100</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="46">
+        <v>60</v>
+      </c>
+      <c r="H23" s="42">
+        <v>100</v>
+      </c>
+      <c r="I23" s="49">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="9">
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="9">
         <v>10</v>
@@ -2630,16 +2885,23 @@
       <c r="F24" s="9">
         <v>8820</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="46">
+        <v>66</v>
+      </c>
+      <c r="H24" s="42">
+        <v>100</v>
+      </c>
+      <c r="I24" s="49">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="9">
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="9">
         <v>12</v>
@@ -2650,16 +2912,23 @@
       <c r="F25" s="9">
         <v>10970</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G25" s="46">
+        <v>80</v>
+      </c>
+      <c r="H25" s="42">
+        <v>100</v>
+      </c>
+      <c r="I25" s="49">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="9">
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="9">
         <v>11</v>
@@ -2670,28 +2939,37 @@
       <c r="F26" s="9">
         <v>9630</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="28">
+      <c r="G26" s="46">
+        <v>73</v>
+      </c>
+      <c r="H26" s="42">
+        <v>100</v>
+      </c>
+      <c r="I26" s="49">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="27">
         <v>25</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>26</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="9">
         <v>9</v>
@@ -2702,16 +2980,23 @@
       <c r="F28" s="9">
         <v>7070</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G28" s="46">
+        <v>60</v>
+      </c>
+      <c r="H28" s="42">
+        <v>100</v>
+      </c>
+      <c r="I28" s="49">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="9">
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="9">
         <v>8</v>
@@ -2722,16 +3007,23 @@
       <c r="F29" s="9">
         <v>7020</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G29" s="46">
+        <v>53</v>
+      </c>
+      <c r="H29" s="42">
+        <v>85</v>
+      </c>
+      <c r="I29" s="49">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" s="9">
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="9">
         <v>12</v>
@@ -2742,28 +3034,37 @@
       <c r="F30" s="9">
         <v>9950</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="28">
+      <c r="G30" s="46">
+        <v>80</v>
+      </c>
+      <c r="H30" s="42">
+        <v>75</v>
+      </c>
+      <c r="I30" s="49">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="27">
         <v>29</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C31" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="50"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
         <v>30</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="9">
         <v>11</v>
@@ -2774,14 +3075,21 @@
       <c r="F32" s="9">
         <v>9610</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>41</v>
+      <c r="G32" s="46">
+        <v>73</v>
+      </c>
+      <c r="H32" s="42">
+        <v>100</v>
+      </c>
+      <c r="I32" s="49">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G32" numberStoredAsText="1"/>
+    <ignoredError sqref="G7:G8 G10 G16 G27 G31" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2791,7 +3099,7 @@
   <dimension ref="B2:K40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2803,32 +3111,38 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9">
         <v>14</v>
@@ -2839,11 +3153,18 @@
       <c r="F3" s="9">
         <v>13810</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="9">
+        <v>93</v>
+      </c>
+      <c r="H3" s="23">
+        <v>88</v>
+      </c>
+      <c r="I3" s="23">
+        <f>AVERAGE(G3:H3)</f>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -2859,16 +3180,23 @@
       <c r="F4" s="9">
         <v>5650</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="9">
+        <v>46</v>
+      </c>
+      <c r="H4" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I4" s="23">
+        <f t="shared" ref="I4:I32" si="0">AVERAGE(G4:H4)</f>
+        <v>67.444999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9">
         <v>8</v>
@@ -2879,16 +3207,23 @@
       <c r="F5" s="9">
         <v>7410</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="9">
+        <v>53</v>
+      </c>
+      <c r="H5" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I5" s="23">
+        <f t="shared" si="0"/>
+        <v>70.944999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="9">
         <v>6</v>
@@ -2899,51 +3234,62 @@
       <c r="F6" s="9">
         <v>4170</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="28">
+      <c r="G6" s="9">
+        <v>40</v>
+      </c>
+      <c r="H6" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I6" s="23">
+        <f t="shared" si="0"/>
+        <v>64.444999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="C7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="30">
         <v>0</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>0</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>0</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="28">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="C8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="30">
         <v>0</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>0</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -2959,36 +3305,45 @@
       <c r="F9" s="9">
         <v>9260</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="28">
+      <c r="G9" s="9">
+        <v>80</v>
+      </c>
+      <c r="H9" s="23">
+        <v>80</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="C10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="30">
         <v>0</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>0</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>0</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9">
         <v>8</v>
@@ -2999,11 +3354,18 @@
       <c r="F11" s="9">
         <v>6310</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="9">
+        <v>53</v>
+      </c>
+      <c r="H11" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" si="0"/>
+        <v>70.944999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -3019,16 +3381,23 @@
       <c r="F12" s="9">
         <v>3210</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="9">
+        <v>26</v>
+      </c>
+      <c r="H12" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="0"/>
+        <v>57.445</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="9">
         <v>9</v>
@@ -3039,36 +3408,50 @@
       <c r="F13" s="9">
         <v>6860</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="33">
+      <c r="G13" s="9">
+        <v>60</v>
+      </c>
+      <c r="H13" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>74.444999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="32">
         <v>12</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="34">
         <v>8</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>7</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="38">
         <v>6180</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G14" s="9">
+        <v>53</v>
+      </c>
+      <c r="H14" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="0"/>
+        <v>70.944999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9">
         <v>12</v>
@@ -3079,36 +3462,45 @@
       <c r="F15" s="9">
         <v>11590</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="28">
+      <c r="G15" s="9">
+        <v>80</v>
+      </c>
+      <c r="H15" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" si="0"/>
+        <v>84.444999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="27">
         <v>14</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="31">
+      <c r="C16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="30">
         <v>0</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <v>0</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <v>0</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="27">
         <v>0</v>
       </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
         <v>8</v>
@@ -3119,8 +3511,15 @@
       <c r="F17" s="9">
         <v>6180</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>42</v>
+      <c r="G17" s="9">
+        <v>53</v>
+      </c>
+      <c r="H17" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="0"/>
+        <v>70.944999999999993</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3128,7 +3527,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="9">
         <v>12</v>
@@ -3139,8 +3538,15 @@
       <c r="F18" s="9">
         <v>8830</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>38</v>
+      <c r="G18" s="9">
+        <v>80</v>
+      </c>
+      <c r="H18" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="0"/>
+        <v>84.444999999999993</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3159,8 +3565,15 @@
       <c r="F19" s="9">
         <v>8280</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>41</v>
+      <c r="G19" s="9">
+        <v>73</v>
+      </c>
+      <c r="H19" s="23">
+        <v>80</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3168,7 +3581,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9">
         <v>14</v>
@@ -3179,8 +3592,15 @@
       <c r="F20" s="9">
         <v>14920</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>37</v>
+      <c r="G20" s="9">
+        <v>93</v>
+      </c>
+      <c r="H20" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I20" s="23">
+        <f t="shared" si="0"/>
+        <v>90.944999999999993</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3188,7 +3608,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9">
         <v>14</v>
@@ -3199,8 +3619,15 @@
       <c r="F21" s="9">
         <v>13070</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>37</v>
+      <c r="G21" s="9">
+        <v>93</v>
+      </c>
+      <c r="H21" s="23">
+        <v>90</v>
+      </c>
+      <c r="I21" s="23">
+        <f t="shared" si="0"/>
+        <v>91.5</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3208,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="9">
         <v>3</v>
@@ -3219,8 +3646,15 @@
       <c r="F22" s="9">
         <v>2230</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>47</v>
+      <c r="G22" s="9">
+        <v>30</v>
+      </c>
+      <c r="H22" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I22" s="23">
+        <f t="shared" si="0"/>
+        <v>59.445</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3228,7 +3662,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D23" s="9">
         <v>10</v>
@@ -3239,8 +3673,15 @@
       <c r="F23" s="9">
         <v>7520</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>40</v>
+      <c r="G23" s="9">
+        <v>66</v>
+      </c>
+      <c r="H23" s="23">
+        <v>80</v>
+      </c>
+      <c r="I23" s="23">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3248,7 +3689,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="9">
         <v>10</v>
@@ -3259,8 +3700,15 @@
       <c r="F24" s="9">
         <v>7730</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>40</v>
+      <c r="G24" s="9">
+        <v>66</v>
+      </c>
+      <c r="H24" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I24" s="23">
+        <f t="shared" si="0"/>
+        <v>77.444999999999993</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3268,7 +3716,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="9">
         <v>10</v>
@@ -3279,8 +3727,15 @@
       <c r="F25" s="9">
         <v>9160</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>40</v>
+      <c r="G25" s="9">
+        <v>66</v>
+      </c>
+      <c r="H25" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I25" s="23">
+        <f t="shared" si="0"/>
+        <v>77.444999999999993</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3288,7 +3743,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="9">
         <v>9</v>
@@ -3299,36 +3754,45 @@
       <c r="F26" s="9">
         <v>6420</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>43</v>
+      <c r="G26" s="9">
+        <v>60</v>
+      </c>
+      <c r="H26" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I26" s="23">
+        <f t="shared" si="0"/>
+        <v>74.444999999999993</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>25</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="31">
+      <c r="C27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="30">
         <v>0</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="30">
         <v>0</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="30">
         <v>0</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="27">
         <v>0</v>
       </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="9">
         <v>6</v>
@@ -3339,8 +3803,15 @@
       <c r="F28" s="9">
         <v>4790</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>45</v>
+      <c r="G28" s="9">
+        <v>40</v>
+      </c>
+      <c r="H28" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I28" s="23">
+        <f t="shared" si="0"/>
+        <v>64.444999999999993</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3348,7 +3819,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="9">
         <v>10</v>
@@ -3359,8 +3830,15 @@
       <c r="F29" s="9">
         <v>7890</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>40</v>
+      <c r="G29" s="9">
+        <v>66</v>
+      </c>
+      <c r="H29" s="23">
+        <v>80</v>
+      </c>
+      <c r="I29" s="23">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="17"/>
@@ -3370,7 +3848,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="9">
         <v>9</v>
@@ -3381,31 +3859,40 @@
       <c r="F30" s="9">
         <v>7270</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>43</v>
+      <c r="G30" s="9">
+        <v>60</v>
+      </c>
+      <c r="H30" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I30" s="23">
+        <f t="shared" si="0"/>
+        <v>74.444999999999993</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="16"/>
     </row>
     <row r="31" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>29</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="31">
+      <c r="C31" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="30">
         <v>0</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <v>0</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <v>0</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="27">
         <v>0</v>
       </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="17"/>
       <c r="K31" s="16"/>
     </row>
@@ -3414,7 +3901,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="9">
         <v>13</v>
@@ -3425,8 +3912,15 @@
       <c r="F32" s="9">
         <v>11560</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>39</v>
+      <c r="G32" s="9">
+        <v>86</v>
+      </c>
+      <c r="H32" s="23">
+        <v>88.89</v>
+      </c>
+      <c r="I32" s="23">
+        <f t="shared" si="0"/>
+        <v>87.444999999999993</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="16"/>
@@ -3438,18 +3932,18 @@
       <c r="K34" s="17"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="B36" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -3461,13 +3955,13 @@
       <c r="F37" s="15">
         <v>6650</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>42</v>
+      <c r="G37" s="15">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15">
@@ -3479,13 +3973,13 @@
       <c r="F38" s="15">
         <v>5830</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>44</v>
+      <c r="G38" s="15">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -3497,13 +3991,13 @@
       <c r="F39" s="15">
         <v>5670</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>42</v>
+      <c r="G39" s="15">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15">
@@ -3515,8 +4009,8 @@
       <c r="F40" s="15">
         <v>4940</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>45</v>
+      <c r="G40" s="15">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +4020,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G13 G15:G32" numberStoredAsText="1"/>
+    <ignoredError sqref="G7:G8 G16 G10 G27 G31" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3535,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
+    <sheetView topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3550,46 +4044,46 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
@@ -3597,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -3689,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>75</v>
@@ -3735,7 +4229,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <v>75</v>
@@ -3777,44 +4271,44 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="C7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>6</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="C8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
@@ -3867,9 +4361,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="25">
+        <v>28</v>
+      </c>
+      <c r="D10" s="24">
         <v>75</v>
       </c>
       <c r="E10" s="3">
@@ -3913,7 +4407,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>75</v>
@@ -4005,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4">
         <v>95</v>
@@ -4051,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5">
         <v>90</v>
@@ -4097,7 +4591,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4">
         <v>100</v>
@@ -4139,47 +4633,47 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>14</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="25">
-        <v>75</v>
-      </c>
-      <c r="E16" s="25">
-        <v>75</v>
-      </c>
-      <c r="F16" s="25">
-        <v>75</v>
-      </c>
-      <c r="G16" s="25">
-        <v>75</v>
-      </c>
-      <c r="H16" s="25">
-        <v>75</v>
-      </c>
-      <c r="I16" s="25">
-        <v>75</v>
-      </c>
-      <c r="J16" s="25">
-        <v>75</v>
-      </c>
-      <c r="K16" s="25">
-        <v>75</v>
-      </c>
-      <c r="L16" s="25">
-        <v>75</v>
-      </c>
-      <c r="M16" s="26">
-        <v>75</v>
-      </c>
-      <c r="N16" s="25">
+      <c r="C16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="24">
+        <v>75</v>
+      </c>
+      <c r="E16" s="24">
+        <v>75</v>
+      </c>
+      <c r="F16" s="24">
+        <v>75</v>
+      </c>
+      <c r="G16" s="24">
+        <v>75</v>
+      </c>
+      <c r="H16" s="24">
+        <v>75</v>
+      </c>
+      <c r="I16" s="24">
+        <v>75</v>
+      </c>
+      <c r="J16" s="24">
+        <v>75</v>
+      </c>
+      <c r="K16" s="24">
+        <v>75</v>
+      </c>
+      <c r="L16" s="24">
+        <v>75</v>
+      </c>
+      <c r="M16" s="25">
+        <v>75</v>
+      </c>
+      <c r="N16" s="24">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4189,7 +4683,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5">
         <v>85</v>
@@ -4235,7 +4729,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3">
         <v>75</v>
@@ -4327,28 +4821,28 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K20" s="3">
         <v>75</v>
@@ -4361,11 +4855,11 @@
       </c>
       <c r="N20" s="8">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>575</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
@@ -4373,7 +4867,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3">
         <v>75</v>
@@ -4419,7 +4913,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3">
         <v>75</v>
@@ -4465,7 +4959,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3">
         <v>75</v>
@@ -4511,7 +5005,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
         <v>75</v>
@@ -4557,7 +5051,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3">
         <v>75</v>
@@ -4603,7 +5097,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
         <v>75</v>
@@ -4645,47 +5139,47 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>25</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="25">
-        <v>75</v>
-      </c>
-      <c r="E27" s="25">
-        <v>75</v>
-      </c>
-      <c r="F27" s="25">
-        <v>75</v>
-      </c>
-      <c r="G27" s="25">
-        <v>75</v>
-      </c>
-      <c r="H27" s="25">
-        <v>75</v>
-      </c>
-      <c r="I27" s="25">
-        <v>75</v>
-      </c>
-      <c r="J27" s="25">
-        <v>75</v>
-      </c>
-      <c r="K27" s="25">
-        <v>75</v>
-      </c>
-      <c r="L27" s="25">
-        <v>75</v>
-      </c>
-      <c r="M27" s="26">
-        <v>75</v>
-      </c>
-      <c r="N27" s="25">
+      <c r="C27" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="24">
+        <v>75</v>
+      </c>
+      <c r="E27" s="24">
+        <v>75</v>
+      </c>
+      <c r="F27" s="24">
+        <v>75</v>
+      </c>
+      <c r="G27" s="24">
+        <v>75</v>
+      </c>
+      <c r="H27" s="24">
+        <v>75</v>
+      </c>
+      <c r="I27" s="24">
+        <v>75</v>
+      </c>
+      <c r="J27" s="24">
+        <v>75</v>
+      </c>
+      <c r="K27" s="24">
+        <v>75</v>
+      </c>
+      <c r="L27" s="24">
+        <v>75</v>
+      </c>
+      <c r="M27" s="25">
+        <v>75</v>
+      </c>
+      <c r="N27" s="24">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4695,7 +5189,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3">
         <v>75</v>
@@ -4741,7 +5235,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3">
         <v>75</v>
@@ -4787,7 +5281,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
         <v>75</v>
@@ -4829,47 +5323,47 @@
       </c>
     </row>
     <row r="31" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>29</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="25">
-        <v>75</v>
-      </c>
-      <c r="E31" s="25">
-        <v>75</v>
-      </c>
-      <c r="F31" s="25">
-        <v>75</v>
-      </c>
-      <c r="G31" s="25">
-        <v>75</v>
-      </c>
-      <c r="H31" s="25">
-        <v>75</v>
-      </c>
-      <c r="I31" s="25">
-        <v>75</v>
-      </c>
-      <c r="J31" s="25">
-        <v>75</v>
-      </c>
-      <c r="K31" s="25">
-        <v>75</v>
-      </c>
-      <c r="L31" s="25">
-        <v>75</v>
-      </c>
-      <c r="M31" s="26">
-        <v>75</v>
-      </c>
-      <c r="N31" s="25">
+      <c r="C31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="24">
+        <v>75</v>
+      </c>
+      <c r="E31" s="24">
+        <v>75</v>
+      </c>
+      <c r="F31" s="24">
+        <v>75</v>
+      </c>
+      <c r="G31" s="24">
+        <v>75</v>
+      </c>
+      <c r="H31" s="24">
+        <v>75</v>
+      </c>
+      <c r="I31" s="24">
+        <v>75</v>
+      </c>
+      <c r="J31" s="24">
+        <v>75</v>
+      </c>
+      <c r="K31" s="24">
+        <v>75</v>
+      </c>
+      <c r="L31" s="24">
+        <v>75</v>
+      </c>
+      <c r="M31" s="25">
+        <v>75</v>
+      </c>
+      <c r="N31" s="24">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4879,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3">
         <v>75</v>
@@ -4933,8 +5427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:L2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4948,43 +5442,43 @@
   <sheetData>
     <row r="2" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -4992,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -5076,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>75</v>
@@ -5119,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <v>75</v>
@@ -5158,42 +5652,42 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="C7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>6</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
+      <c r="C8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
@@ -5243,7 +5737,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3">
         <v>75</v>
@@ -5286,7 +5780,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>75</v>
@@ -5370,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3">
         <v>75</v>
@@ -5413,7 +5907,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3">
         <v>75</v>
@@ -5456,7 +5950,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3">
         <v>75</v>
@@ -5495,30 +5989,30 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>14</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="C16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>75</v>
@@ -5559,7 +6053,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3">
         <v>75</v>
@@ -5643,25 +6137,25 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H20" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20" s="3">
         <v>75</v>
@@ -5674,11 +6168,11 @@
       </c>
       <c r="M20" s="8">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>525</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="1"/>
-        <v>33.333333333333336</v>
+        <v>58.333333333333336</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -5686,7 +6180,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3">
         <v>75</v>
@@ -5729,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3">
         <v>75</v>
@@ -5772,7 +6266,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3">
         <v>75</v>
@@ -5815,7 +6309,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
         <v>75</v>
@@ -5858,7 +6352,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3">
         <v>75</v>
@@ -5901,7 +6395,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
         <v>75</v>
@@ -5940,44 +6434,44 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>25</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="25">
-        <v>75</v>
-      </c>
-      <c r="E27" s="25">
-        <v>75</v>
-      </c>
-      <c r="F27" s="25">
-        <v>75</v>
-      </c>
-      <c r="G27" s="25">
-        <v>75</v>
-      </c>
-      <c r="H27" s="25">
-        <v>75</v>
-      </c>
-      <c r="I27" s="25">
-        <v>75</v>
-      </c>
-      <c r="J27" s="25">
-        <v>75</v>
-      </c>
-      <c r="K27" s="25">
-        <v>75</v>
-      </c>
-      <c r="L27" s="25">
-        <v>75</v>
-      </c>
-      <c r="M27" s="25">
+      <c r="C27" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="24">
+        <v>75</v>
+      </c>
+      <c r="E27" s="24">
+        <v>75</v>
+      </c>
+      <c r="F27" s="24">
+        <v>75</v>
+      </c>
+      <c r="G27" s="24">
+        <v>75</v>
+      </c>
+      <c r="H27" s="24">
+        <v>75</v>
+      </c>
+      <c r="I27" s="24">
+        <v>75</v>
+      </c>
+      <c r="J27" s="24">
+        <v>75</v>
+      </c>
+      <c r="K27" s="24">
+        <v>75</v>
+      </c>
+      <c r="L27" s="24">
+        <v>75</v>
+      </c>
+      <c r="M27" s="24">
         <f t="shared" si="0"/>
         <v>675</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="24">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -5987,7 +6481,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3">
         <v>75</v>
@@ -6030,7 +6524,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3">
         <v>75</v>
@@ -6073,7 +6567,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
         <v>75</v>
@@ -6112,30 +6606,30 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>29</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
+      <c r="C31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3">
         <v>75</v>
@@ -6213,4 +6707,721 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E646C10-1A12-4978-A8EA-6D7DEAD8C555}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="42">
+        <v>90</v>
+      </c>
+      <c r="D2" s="42">
+        <v>80</v>
+      </c>
+      <c r="E2" s="42">
+        <v>85</v>
+      </c>
+      <c r="F2" s="42">
+        <v>100</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f>AVERAGE(C2:G2)</f>
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42">
+        <v>90</v>
+      </c>
+      <c r="D3" s="42">
+        <v>80</v>
+      </c>
+      <c r="E3" s="42">
+        <v>80</v>
+      </c>
+      <c r="F3" s="42">
+        <v>100</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42">
+        <f t="shared" ref="H3:H31" si="0">AVERAGE(C3:G3)</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="42">
+        <v>80</v>
+      </c>
+      <c r="D4" s="42">
+        <v>80</v>
+      </c>
+      <c r="E4" s="42">
+        <v>80</v>
+      </c>
+      <c r="F4" s="42">
+        <v>100</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="42">
+        <v>90</v>
+      </c>
+      <c r="D5" s="42">
+        <v>90</v>
+      </c>
+      <c r="E5" s="42">
+        <v>85</v>
+      </c>
+      <c r="F5" s="42">
+        <v>100</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42">
+        <v>90</v>
+      </c>
+      <c r="D8" s="42">
+        <v>85</v>
+      </c>
+      <c r="E8" s="42">
+        <v>85</v>
+      </c>
+      <c r="F8" s="42">
+        <v>100</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="42">
+        <v>90</v>
+      </c>
+      <c r="D10" s="42">
+        <v>85</v>
+      </c>
+      <c r="E10" s="42">
+        <v>90</v>
+      </c>
+      <c r="F10" s="42">
+        <v>100</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="42">
+        <v>100</v>
+      </c>
+      <c r="D11" s="42">
+        <v>90</v>
+      </c>
+      <c r="E11" s="42">
+        <v>90</v>
+      </c>
+      <c r="F11" s="42">
+        <v>100</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="42">
+        <v>100</v>
+      </c>
+      <c r="D12" s="42">
+        <v>90</v>
+      </c>
+      <c r="E12" s="42">
+        <v>90</v>
+      </c>
+      <c r="F12" s="42">
+        <v>100</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="42">
+        <v>90</v>
+      </c>
+      <c r="D13" s="42">
+        <v>85</v>
+      </c>
+      <c r="E13" s="42">
+        <v>90</v>
+      </c>
+      <c r="F13" s="42">
+        <v>100</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="42">
+        <v>90</v>
+      </c>
+      <c r="D14" s="42">
+        <v>90</v>
+      </c>
+      <c r="E14" s="42">
+        <v>90</v>
+      </c>
+      <c r="F14" s="42">
+        <v>100</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="42">
+        <v>90</v>
+      </c>
+      <c r="D16" s="42">
+        <v>90</v>
+      </c>
+      <c r="E16" s="42">
+        <v>90</v>
+      </c>
+      <c r="F16" s="42">
+        <v>100</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="42">
+        <v>100</v>
+      </c>
+      <c r="D17" s="42">
+        <v>90</v>
+      </c>
+      <c r="E17" s="42">
+        <v>85</v>
+      </c>
+      <c r="F17" s="42">
+        <v>100</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42">
+        <f t="shared" si="0"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="42">
+        <v>90</v>
+      </c>
+      <c r="D18" s="42">
+        <v>85</v>
+      </c>
+      <c r="E18" s="42">
+        <v>90</v>
+      </c>
+      <c r="F18" s="42">
+        <v>100</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="42">
+        <v>90</v>
+      </c>
+      <c r="D19" s="42">
+        <v>90</v>
+      </c>
+      <c r="E19" s="42">
+        <v>90</v>
+      </c>
+      <c r="F19" s="42">
+        <v>100</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="42">
+        <v>90</v>
+      </c>
+      <c r="D20" s="42">
+        <v>100</v>
+      </c>
+      <c r="E20" s="42">
+        <v>100</v>
+      </c>
+      <c r="F20" s="42">
+        <v>100</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="42">
+        <v>90</v>
+      </c>
+      <c r="D21" s="42">
+        <v>85</v>
+      </c>
+      <c r="E21" s="42">
+        <v>85</v>
+      </c>
+      <c r="F21" s="42">
+        <v>100</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="42">
+        <v>90</v>
+      </c>
+      <c r="D22" s="42">
+        <v>100</v>
+      </c>
+      <c r="E22" s="42">
+        <v>90</v>
+      </c>
+      <c r="F22" s="42">
+        <v>100</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="42">
+        <v>90</v>
+      </c>
+      <c r="D23" s="42">
+        <v>90</v>
+      </c>
+      <c r="E23" s="42">
+        <v>85</v>
+      </c>
+      <c r="F23" s="42">
+        <v>100</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="42">
+        <v>90</v>
+      </c>
+      <c r="D24" s="42">
+        <v>100</v>
+      </c>
+      <c r="E24" s="42">
+        <v>90</v>
+      </c>
+      <c r="F24" s="42">
+        <v>100</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="42">
+        <v>90</v>
+      </c>
+      <c r="D25" s="42">
+        <v>85</v>
+      </c>
+      <c r="E25" s="42">
+        <v>85</v>
+      </c>
+      <c r="F25" s="42">
+        <v>100</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="42">
+        <v>90</v>
+      </c>
+      <c r="D28" s="42">
+        <v>85</v>
+      </c>
+      <c r="E28" s="42">
+        <v>90</v>
+      </c>
+      <c r="F28" s="42">
+        <v>100</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="42">
+        <v>90</v>
+      </c>
+      <c r="D29" s="42">
+        <v>85</v>
+      </c>
+      <c r="E29" s="42">
+        <v>90</v>
+      </c>
+      <c r="F29" s="42">
+        <v>100</v>
+      </c>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="42">
+        <v>90</v>
+      </c>
+      <c r="D31" s="42">
+        <v>100</v>
+      </c>
+      <c r="E31" s="42">
+        <v>90</v>
+      </c>
+      <c r="F31" s="42">
+        <v>100</v>
+      </c>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>